--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004dpvz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFE5D96-D74D-4750-B61E-B9706ADD5094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B717C8-2889-4BBC-A066-94623A12F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>台阶</t>
   </si>
@@ -37,13 +38,6 @@
   <si>
     <t>水槽
 操作台</t>
-  </si>
-  <si>
-    <t>塑木
-不铺砖</t>
-  </si>
-  <si>
-    <t>矮水槽</t>
   </si>
   <si>
     <t>院门</t>
@@ -109,12 +103,27 @@
   <si>
     <t>门左手边墙</t>
   </si>
+  <si>
+    <t>拖把池</t>
+  </si>
+  <si>
+    <t>悬浮卡座</t>
+  </si>
+  <si>
+    <t>&lt;| 2000 |&gt;</t>
+  </si>
+  <si>
+    <t>杂砖</t>
+  </si>
+  <si>
+    <t>8地砖</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +131,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +164,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="55">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -761,11 +783,351 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -845,20 +1207,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -875,9 +1267,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,15 +1296,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,10 +1309,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,9 +1319,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
@@ -961,36 +1335,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AU35"/>
+  <dimension ref="B1:AU34"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AU9" sqref="AU9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AV17" sqref="AV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,1393 +1740,1411 @@
     <col min="1" max="46" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="90">
-        <v>3400</v>
+    <row r="1" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="104"/>
+      <c r="F1" s="107" t="s">
+        <v>4</v>
       </c>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-    </row>
-    <row r="2" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="92"/>
-      <c r="F2" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
-      <c r="W2" s="94">
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+      <c r="W1" s="134">
         <v>1000</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="89">
+      <c r="X1" s="160"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="162"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
+      <c r="AJ1" s="163"/>
+      <c r="AK1" s="161"/>
+      <c r="AL1" s="162"/>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="136">
         <v>6600</v>
       </c>
-      <c r="AU2">
+      <c r="AU1">
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B2" s="104"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="133"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="136"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="11"/>
+      <c r="AU2">
+        <v>100</v>
+      </c>
+    </row>
     <row r="3" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B3" s="92"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="89"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="11"/>
+      <c r="B3" s="104"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="165"/>
+      <c r="AN3" s="136"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="14"/>
       <c r="AU3">
-        <v>70</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="4" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B4" s="92"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="89"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="14"/>
-      <c r="AU4">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="5" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B5" s="92"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="89"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="17"/>
-    </row>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B6" s="92"/>
-      <c r="C6" s="90">
+      <c r="B4" s="104"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="145"/>
+      <c r="AN4" s="136"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="17"/>
+    </row>
+    <row r="5" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="104"/>
+      <c r="C5" s="102">
         <v>4200</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="89"/>
-    </row>
-    <row r="7" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="93">
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="133"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="133"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="133"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="147"/>
+      <c r="AN5" s="136"/>
+    </row>
+    <row r="6" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="105">
         <v>5600</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="118">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="177" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="139"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="141">
         <v>1000</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="118">
+      <c r="O6" s="142"/>
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="142"/>
+      <c r="T6" s="142"/>
+      <c r="U6" s="142"/>
+      <c r="V6" s="142"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="166"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="124">
         <v>600</v>
       </c>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="89"/>
-    </row>
-    <row r="8" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="93"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="117"/>
-      <c r="Q8" s="91" t="s">
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="136"/>
+    </row>
+    <row r="7" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="105"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="180" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL7" s="180"/>
+      <c r="AM7" s="121"/>
+      <c r="AN7" s="136"/>
+    </row>
+    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B8" s="105"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="117"/>
-      <c r="AK8" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="114"/>
-      <c r="AN8" s="89"/>
-    </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B9" s="93"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="133"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="133"/>
+      <c r="AI8" s="133"/>
+      <c r="AJ8" s="125"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="123"/>
+      <c r="AN8" s="136"/>
+    </row>
+    <row r="9" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="105"/>
       <c r="C9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="117"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="115"/>
-      <c r="AL9" s="115"/>
-      <c r="AM9" s="116"/>
-      <c r="AN9" s="89"/>
-    </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B10" s="93"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="149"/>
+      <c r="AN9" s="136"/>
+    </row>
+    <row r="10" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="105"/>
       <c r="C10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="117"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="89"/>
-    </row>
-    <row r="11" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="93"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="90">
+      <c r="E10" s="130"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="102">
         <v>2000</v>
       </c>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="117">
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="99">
         <v>1400</v>
       </c>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="89"/>
-    </row>
-    <row r="12" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="93"/>
-      <c r="C12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="117"/>
-      <c r="AK12" s="112" t="s">
+      <c r="AK10" s="130"/>
+      <c r="AL10" s="130"/>
+      <c r="AM10" s="150"/>
+      <c r="AN10" s="136"/>
+    </row>
+    <row r="11" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="105"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="174">
+        <v>500</v>
+      </c>
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="133"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="133"/>
+      <c r="AI11" s="133"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="AL12" s="112"/>
-      <c r="AM12" s="113"/>
-      <c r="AN12" s="89"/>
-    </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B13" s="93"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="94">
+      <c r="AL11" s="132"/>
+      <c r="AM11" s="151"/>
+      <c r="AN11" s="136"/>
+    </row>
+    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B12" s="105"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="134">
         <v>4000</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="117"/>
-      <c r="AK13" s="112"/>
-      <c r="AL13" s="112"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="89"/>
-    </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B14" s="93"/>
-      <c r="C14" s="4"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="112"/>
-      <c r="AL14" s="112"/>
-      <c r="AM14" s="113"/>
-      <c r="AN14" s="89"/>
-    </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B15" s="93"/>
-      <c r="C15" s="122" t="s">
+      <c r="F12" s="148"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="170"/>
+      <c r="T12" s="170"/>
+      <c r="U12" s="170"/>
+      <c r="V12" s="170"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="131"/>
+      <c r="AL12" s="132"/>
+      <c r="AM12" s="151"/>
+      <c r="AN12" s="136"/>
+    </row>
+    <row r="13" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="105"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="172"/>
+      <c r="S13" s="172"/>
+      <c r="T13" s="172"/>
+      <c r="U13" s="172"/>
+      <c r="V13" s="172"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="131"/>
+      <c r="AL13" s="132"/>
+      <c r="AM13" s="151"/>
+      <c r="AN13" s="136"/>
+    </row>
+    <row r="14" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="105"/>
+      <c r="C14" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="117"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="89"/>
-    </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B16" s="93"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="6"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="89"/>
-    </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B17" s="93"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="123" t="s">
+      <c r="D14" s="120"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="133"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="133"/>
+      <c r="AI14" s="133"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="131"/>
+      <c r="AL14" s="130"/>
+      <c r="AM14" s="150"/>
+      <c r="AN14" s="136"/>
+    </row>
+    <row r="15" spans="2:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="105"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="155"/>
+      <c r="V15" s="153"/>
+      <c r="W15" s="154"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="153"/>
+      <c r="Z15" s="154"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="153"/>
+      <c r="AC15" s="154"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="153"/>
+      <c r="AF15" s="154"/>
+      <c r="AG15" s="155"/>
+      <c r="AH15" s="153"/>
+      <c r="AI15" s="154"/>
+      <c r="AJ15" s="156"/>
+      <c r="AK15" s="157"/>
+      <c r="AL15" s="158"/>
+      <c r="AM15" s="159"/>
+      <c r="AN15" s="136"/>
+    </row>
+    <row r="16" spans="2:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="105"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="133"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="133"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="101"/>
+    </row>
+    <row r="17" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="105"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="100">
+        <v>800</v>
+      </c>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="101"/>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B18" s="105"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="100"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="101"/>
+    </row>
+    <row r="19" spans="2:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="105"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="101"/>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B20" s="105"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK20" s="96"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="101"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B21" s="105"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="97"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="101"/>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B22" s="105"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="101"/>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B23" s="105"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="97"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="86"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="101"/>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B24" s="105"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="97"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="86"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="101"/>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B25" s="105"/>
+      <c r="C25" s="126">
+        <v>600</v>
+      </c>
+      <c r="D25" s="102"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="97"/>
+      <c r="AK25" s="98"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="101"/>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B26" s="105"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="97"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="101"/>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B27" s="105"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="97"/>
+      <c r="AK27" s="98"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="101"/>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B28" s="105"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="97"/>
+      <c r="AK28" s="98"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="101"/>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B29" s="105"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="181"/>
+      <c r="AK29" s="182"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="101"/>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B30" s="105"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="101"/>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B31" s="105"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="100">
+        <v>800</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="184"/>
+      <c r="Z31" s="185"/>
+      <c r="AA31" s="186"/>
+      <c r="AB31" s="185"/>
+      <c r="AC31" s="185"/>
+      <c r="AD31" s="186"/>
+      <c r="AE31" s="185"/>
+      <c r="AF31" s="185"/>
+      <c r="AG31" s="186"/>
+      <c r="AH31" s="185"/>
+      <c r="AI31" s="187"/>
+      <c r="AJ31" s="100">
+        <v>800</v>
+      </c>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="101"/>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B32" s="105"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="100"/>
+      <c r="W32" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="100">
+        <v>400</v>
+      </c>
+      <c r="AA32" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="120"/>
+      <c r="AJ32" s="100"/>
+      <c r="AL32" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="101"/>
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B33" s="105"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="183"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="122"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="101"/>
+    </row>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="93">
-        <v>3000</v>
-      </c>
-      <c r="AJ17" s="127">
-        <v>800</v>
-      </c>
-      <c r="AK17" s="111"/>
-      <c r="AL17" s="111"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="89"/>
-    </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B18" s="93"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="105"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="105"/>
-      <c r="AB18" s="105"/>
-      <c r="AC18" s="105"/>
-      <c r="AD18" s="105"/>
-      <c r="AE18" s="105"/>
-      <c r="AF18" s="105"/>
-      <c r="AG18" s="105"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="4"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="89"/>
-    </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B19" s="93"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="105"/>
-      <c r="AB19" s="105"/>
-      <c r="AC19" s="105"/>
-      <c r="AD19" s="105"/>
-      <c r="AE19" s="105"/>
-      <c r="AF19" s="105"/>
-      <c r="AG19" s="105"/>
-      <c r="AH19" s="114"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="4"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="89"/>
-    </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="93"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="105"/>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="105"/>
-      <c r="Z20" s="105"/>
-      <c r="AA20" s="105"/>
-      <c r="AB20" s="105"/>
-      <c r="AC20" s="105"/>
-      <c r="AD20" s="105"/>
-      <c r="AE20" s="105"/>
-      <c r="AF20" s="105"/>
-      <c r="AG20" s="105"/>
-      <c r="AH20" s="114"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="4"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="89"/>
-    </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B21" s="93"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="105"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="105"/>
-      <c r="AA21" s="105"/>
-      <c r="AB21" s="105"/>
-      <c r="AC21" s="105"/>
-      <c r="AD21" s="105"/>
-      <c r="AE21" s="105"/>
-      <c r="AF21" s="105"/>
-      <c r="AG21" s="105"/>
-      <c r="AH21" s="114"/>
-      <c r="AI21" s="93"/>
-      <c r="AJ21" s="4"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="89"/>
-    </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B22" s="93"/>
-      <c r="C22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="105"/>
-      <c r="W22" s="105"/>
-      <c r="X22" s="105"/>
-      <c r="Y22" s="105"/>
-      <c r="Z22" s="105"/>
-      <c r="AA22" s="105"/>
-      <c r="AB22" s="105"/>
-      <c r="AC22" s="105"/>
-      <c r="AD22" s="105"/>
-      <c r="AE22" s="105"/>
-      <c r="AF22" s="105"/>
-      <c r="AG22" s="105"/>
-      <c r="AH22" s="114"/>
-      <c r="AI22" s="93"/>
-      <c r="AJ22" s="4"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="89"/>
-    </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B23" s="93"/>
-      <c r="C23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="105"/>
-      <c r="W23" s="105"/>
-      <c r="X23" s="105"/>
-      <c r="Y23" s="105"/>
-      <c r="Z23" s="105"/>
-      <c r="AA23" s="105"/>
-      <c r="AB23" s="105"/>
-      <c r="AC23" s="105"/>
-      <c r="AD23" s="105"/>
-      <c r="AE23" s="105"/>
-      <c r="AF23" s="105"/>
-      <c r="AG23" s="105"/>
-      <c r="AH23" s="114"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="4"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="89"/>
-    </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B24" s="93"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="105"/>
-      <c r="AB24" s="105"/>
-      <c r="AC24" s="105"/>
-      <c r="AD24" s="105"/>
-      <c r="AE24" s="105"/>
-      <c r="AF24" s="105"/>
-      <c r="AG24" s="105"/>
-      <c r="AH24" s="114"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="105"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="89"/>
-    </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B25" s="93"/>
-      <c r="C25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="105"/>
-      <c r="Y25" s="105"/>
-      <c r="Z25" s="105"/>
-      <c r="AA25" s="105"/>
-      <c r="AB25" s="105"/>
-      <c r="AC25" s="105"/>
-      <c r="AD25" s="105"/>
-      <c r="AE25" s="105"/>
-      <c r="AF25" s="105"/>
-      <c r="AG25" s="105"/>
-      <c r="AH25" s="114"/>
-      <c r="AI25" s="93"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="105"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="89"/>
-    </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="93"/>
-      <c r="C26" s="120">
-        <v>600</v>
-      </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="122"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="105"/>
-      <c r="X26" s="105"/>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="105"/>
-      <c r="AA26" s="105"/>
-      <c r="AB26" s="105"/>
-      <c r="AC26" s="105"/>
-      <c r="AD26" s="105"/>
-      <c r="AE26" s="105"/>
-      <c r="AF26" s="105"/>
-      <c r="AG26" s="105"/>
-      <c r="AH26" s="114"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="4"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="89"/>
-    </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B27" s="93"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="105"/>
-      <c r="AC27" s="105"/>
-      <c r="AD27" s="105"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="105"/>
-      <c r="AG27" s="105"/>
-      <c r="AH27" s="114"/>
-      <c r="AI27" s="93"/>
-      <c r="AJ27" s="4"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="89"/>
-    </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B28" s="93"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="105"/>
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="105"/>
-      <c r="Z28" s="105"/>
-      <c r="AA28" s="105"/>
-      <c r="AB28" s="105"/>
-      <c r="AC28" s="105"/>
-      <c r="AD28" s="105"/>
-      <c r="AE28" s="105"/>
-      <c r="AF28" s="105"/>
-      <c r="AG28" s="105"/>
-      <c r="AH28" s="114"/>
-      <c r="AI28" s="93"/>
-      <c r="AJ28" s="4"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="89"/>
-    </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B29" s="93"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="105"/>
-      <c r="W29" s="105"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="105"/>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="105"/>
-      <c r="AB29" s="105"/>
-      <c r="AC29" s="105"/>
-      <c r="AD29" s="105"/>
-      <c r="AE29" s="105"/>
-      <c r="AF29" s="105"/>
-      <c r="AG29" s="105"/>
-      <c r="AH29" s="114"/>
-      <c r="AI29" s="93"/>
-      <c r="AJ29" s="4"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="89"/>
-    </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B30" s="93"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="115"/>
-      <c r="W30" s="115"/>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="115"/>
-      <c r="Z30" s="115"/>
-      <c r="AA30" s="115"/>
-      <c r="AB30" s="115"/>
-      <c r="AC30" s="115"/>
-      <c r="AD30" s="115"/>
-      <c r="AE30" s="115"/>
-      <c r="AF30" s="115"/>
-      <c r="AG30" s="115"/>
-      <c r="AH30" s="116"/>
-      <c r="AI30" s="93"/>
-      <c r="AJ30" s="4"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="89"/>
-    </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B31" s="93"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="17"/>
-      <c r="Y31" s="90">
-        <v>3000</v>
-      </c>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="90"/>
-      <c r="AD31" s="90"/>
-      <c r="AE31" s="90"/>
-      <c r="AF31" s="90"/>
-      <c r="AI31" s="129"/>
-      <c r="AJ31" s="4"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="89"/>
-    </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B32" s="93"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="106">
-        <v>600</v>
-      </c>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="89"/>
-    </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B33" s="93"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="89"/>
-      <c r="AA33" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="105"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="89"/>
-    </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B34" s="93"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="105"/>
-      <c r="AB34" s="105"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
-      <c r="AJ34" s="7"/>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7"/>
-      <c r="AM34" s="8"/>
-      <c r="AN34" s="89"/>
-    </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="108" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="111">
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="119">
         <v>7600</v>
       </c>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="111"/>
-      <c r="W35" s="111"/>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="2"/>
+      <c r="S34" s="119"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="119"/>
+      <c r="V34" s="119"/>
+      <c r="W34" s="119"/>
+      <c r="X34" s="119"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="R35:X35"/>
-    <mergeCell ref="AK12:AM14"/>
-    <mergeCell ref="AK8:AM9"/>
-    <mergeCell ref="AJ11:AJ15"/>
-    <mergeCell ref="AJ7:AJ9"/>
-    <mergeCell ref="N7:N11"/>
-    <mergeCell ref="Q8:T9"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="AA33:AB34"/>
-    <mergeCell ref="U17:AH30"/>
-    <mergeCell ref="AJ17:AM17"/>
-    <mergeCell ref="AI17:AI31"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="AN2:AN34"/>
-    <mergeCell ref="X1:AM1"/>
-    <mergeCell ref="C1:W1"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B34"/>
-    <mergeCell ref="W2:W6"/>
-    <mergeCell ref="C6:V6"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="F2:H4"/>
-    <mergeCell ref="AK24:AL25"/>
-    <mergeCell ref="U32:U34"/>
+  <mergeCells count="26">
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="R34:X34"/>
+    <mergeCell ref="AK7:AM8"/>
+    <mergeCell ref="AJ6:AJ8"/>
+    <mergeCell ref="N6:N10"/>
+    <mergeCell ref="Q7:T8"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="C14:D17"/>
+    <mergeCell ref="AA32:AB33"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="J6:J15"/>
+    <mergeCell ref="AJ20:AK29"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="AN1:AN33"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="W1:W5"/>
+    <mergeCell ref="C5:V5"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="F1:H3"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="AK11:AK15"/>
+    <mergeCell ref="AJ10:AJ14"/>
+    <mergeCell ref="AJ17:AJ18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEBC73B-9EF1-42A2-85E4-F3F7C3928E46}">
-  <dimension ref="A1:CF107"/>
+  <dimension ref="A1:CH107"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AT95" sqref="AT95"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF48" sqref="AF48:AG48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,11 +3153,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="M1" s="91">
+      <c r="M1" s="103">
         <v>2700</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" s="53"/>
@@ -3127,8 +3602,8 @@
       <c r="Z13" s="24"/>
       <c r="AA13" s="24"/>
       <c r="AB13" s="35"/>
-      <c r="AC13" s="117" t="s">
-        <v>7</v>
+      <c r="AC13" s="99" t="s">
+        <v>5</v>
       </c>
       <c r="AI13" s="23"/>
       <c r="AJ13" s="24"/>
@@ -3169,7 +3644,7 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="24"/>
       <c r="AB14" s="35"/>
-      <c r="AC14" s="117"/>
+      <c r="AC14" s="99"/>
       <c r="AI14" s="26"/>
       <c r="AJ14" s="27"/>
       <c r="AK14" s="27"/>
@@ -3182,7 +3657,7 @@
       <c r="AT14" s="51"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A15" s="130">
+      <c r="A15" s="129">
         <v>3200</v>
       </c>
       <c r="B15" s="54"/>
@@ -3212,14 +3687,14 @@
       <c r="Z15" s="24"/>
       <c r="AA15" s="24"/>
       <c r="AB15" s="35"/>
-      <c r="AC15" s="117"/>
+      <c r="AC15" s="99"/>
       <c r="AQ15" s="49"/>
       <c r="AR15" s="50"/>
       <c r="AS15" s="50"/>
       <c r="AT15" s="51"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="54"/>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
@@ -3247,14 +3722,14 @@
       <c r="Z16" s="24"/>
       <c r="AA16" s="24"/>
       <c r="AB16" s="35"/>
-      <c r="AC16" s="117"/>
+      <c r="AC16" s="99"/>
       <c r="AQ16" s="49"/>
       <c r="AR16" s="50"/>
       <c r="AS16" s="50"/>
       <c r="AT16" s="51"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="55"/>
       <c r="C17" s="56"/>
       <c r="D17" s="57"/>
@@ -3282,14 +3757,18 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="24"/>
       <c r="AB17" s="35"/>
-      <c r="AC17" s="117"/>
+      <c r="AC17" s="99"/>
+      <c r="AE17" s="103">
+        <v>10</v>
+      </c>
+      <c r="AF17" s="103"/>
       <c r="AQ17" s="49"/>
       <c r="AR17" s="50"/>
       <c r="AS17" s="50"/>
       <c r="AT17" s="51"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="58"/>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
@@ -3317,14 +3796,14 @@
       <c r="Z18" s="24"/>
       <c r="AA18" s="24"/>
       <c r="AB18" s="35"/>
-      <c r="AC18" s="117"/>
+      <c r="AC18" s="99"/>
       <c r="AQ18" s="49"/>
       <c r="AR18" s="50"/>
       <c r="AS18" s="50"/>
       <c r="AT18" s="51"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="54"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
@@ -3352,14 +3831,14 @@
       <c r="Z19" s="24"/>
       <c r="AA19" s="24"/>
       <c r="AB19" s="35"/>
-      <c r="AC19" s="117"/>
+      <c r="AC19" s="99"/>
       <c r="AQ19" s="49"/>
       <c r="AR19" s="50"/>
       <c r="AS19" s="50"/>
       <c r="AT19" s="51"/>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="54"/>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
@@ -3387,14 +3866,14 @@
       <c r="Z20" s="24"/>
       <c r="AA20" s="24"/>
       <c r="AB20" s="35"/>
-      <c r="AC20" s="117"/>
+      <c r="AC20" s="99"/>
       <c r="AQ20" s="65"/>
       <c r="AR20" s="56"/>
       <c r="AS20" s="56"/>
       <c r="AT20" s="57"/>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="54"/>
       <c r="C21" s="50"/>
       <c r="D21" s="51"/>
@@ -3422,6 +3901,10 @@
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
       <c r="AB21" s="37"/>
+      <c r="AE21" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF21" s="103"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B22" s="54"/>
@@ -3451,6 +3934,10 @@
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="39"/>
+      <c r="AE22" s="103">
+        <v>7</v>
+      </c>
+      <c r="AF22" s="103"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B23" s="54"/>
@@ -3772,15 +4259,15 @@
       <c r="AB33" s="44"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="N35" s="90">
+      <c r="N35" s="102">
         <v>3200</v>
       </c>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="102"/>
+      <c r="T35" s="102"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
       <c r="B36" s="70"/>
@@ -4071,6 +4558,9 @@
       <c r="AE40" s="56"/>
       <c r="AF40" s="56"/>
       <c r="AG40" s="68"/>
+      <c r="AJ40">
+        <v>16</v>
+      </c>
       <c r="AQ40" s="65"/>
       <c r="AR40" s="56"/>
       <c r="AS40" s="56"/>
@@ -4461,7 +4951,7 @@
       <c r="CF45" s="52"/>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A46" s="94">
+      <c r="A46" s="106">
         <v>2600</v>
       </c>
       <c r="B46" s="34"/>
@@ -4530,7 +5020,7 @@
       <c r="CF46" s="68"/>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="36"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4563,8 +5053,8 @@
       <c r="AE47" s="28"/>
       <c r="AF47" s="26"/>
       <c r="AG47" s="37"/>
-      <c r="AH47" s="130" t="s">
-        <v>8</v>
+      <c r="AH47" s="129" t="s">
+        <v>6</v>
       </c>
       <c r="BA47" s="38"/>
       <c r="BB47" s="21"/>
@@ -4600,7 +5090,7 @@
       <c r="CF47" s="39"/>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="38"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
@@ -4633,7 +5123,7 @@
       <c r="AE48" s="22"/>
       <c r="AF48" s="20"/>
       <c r="AG48" s="39"/>
-      <c r="AH48" s="130"/>
+      <c r="AH48" s="129"/>
       <c r="AQ48" s="20"/>
       <c r="AR48" s="21"/>
       <c r="AS48" s="21"/>
@@ -4675,8 +5165,8 @@
       <c r="CE48" s="24"/>
       <c r="CF48" s="35"/>
     </row>
-    <row r="49" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A49" s="94"/>
+    <row r="49" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A49" s="106"/>
       <c r="B49" s="34"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -4709,7 +5199,11 @@
       <c r="AE49" s="25"/>
       <c r="AF49" s="23"/>
       <c r="AG49" s="35"/>
-      <c r="AH49" s="130"/>
+      <c r="AH49" s="129"/>
+      <c r="AJ49" s="103">
+        <v>15</v>
+      </c>
+      <c r="AK49" s="103"/>
       <c r="AQ49" s="23"/>
       <c r="AR49" s="24"/>
       <c r="AS49" s="24"/>
@@ -4751,8 +5245,8 @@
       <c r="CE49" s="24"/>
       <c r="CF49" s="35"/>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
+    <row r="50" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A50" s="106"/>
       <c r="B50" s="36"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4785,7 +5279,7 @@
       <c r="AE50" s="28"/>
       <c r="AF50" s="26"/>
       <c r="AG50" s="37"/>
-      <c r="AH50" s="130"/>
+      <c r="AH50" s="129"/>
       <c r="AQ50" s="23"/>
       <c r="AR50" s="24"/>
       <c r="AS50" s="24"/>
@@ -4826,9 +5320,13 @@
       <c r="CD50" s="27"/>
       <c r="CE50" s="27"/>
       <c r="CF50" s="37"/>
-    </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
+      <c r="CG50" s="188">
+        <v>8</v>
+      </c>
+      <c r="CH50" s="103"/>
+    </row>
+    <row r="51" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A51" s="106"/>
       <c r="B51" s="38"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
@@ -4861,7 +5359,7 @@
       <c r="AE51" s="22"/>
       <c r="AF51" s="20"/>
       <c r="AG51" s="39"/>
-      <c r="AH51" s="130"/>
+      <c r="AH51" s="129"/>
       <c r="AQ51" s="26"/>
       <c r="AR51" s="27"/>
       <c r="AS51" s="27"/>
@@ -4903,8 +5401,8 @@
       <c r="CE51" s="21"/>
       <c r="CF51" s="39"/>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
+    <row r="52" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A52" s="106"/>
       <c r="B52" s="34"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -4937,7 +5435,7 @@
       <c r="AE52" s="25"/>
       <c r="AF52" s="23"/>
       <c r="AG52" s="35"/>
-      <c r="AH52" s="130"/>
+      <c r="AH52" s="129"/>
       <c r="BA52" s="34"/>
       <c r="BB52" s="24"/>
       <c r="BC52" s="24"/>
@@ -4971,8 +5469,8 @@
       <c r="CE52" s="24"/>
       <c r="CF52" s="35"/>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A53" s="131"/>
+    <row r="53" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="A53" s="85"/>
       <c r="B53" s="36"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -5038,7 +5536,7 @@
       <c r="CE53" s="24"/>
       <c r="CF53" s="35"/>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B54" s="58"/>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
@@ -5104,7 +5602,7 @@
       <c r="CE54" s="27"/>
       <c r="CF54" s="37"/>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B55" s="54"/>
       <c r="C55" s="50"/>
       <c r="D55" s="50"/>
@@ -5170,7 +5668,7 @@
       <c r="CE55" s="59"/>
       <c r="CF55" s="67"/>
     </row>
-    <row r="56" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B56" s="54"/>
       <c r="C56" s="50"/>
       <c r="D56" s="50"/>
@@ -5236,7 +5734,7 @@
       <c r="CE56" s="50"/>
       <c r="CF56" s="52"/>
     </row>
-    <row r="57" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B57" s="55"/>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
@@ -5302,7 +5800,7 @@
       <c r="CE57" s="50"/>
       <c r="CF57" s="52"/>
     </row>
-    <row r="58" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B58" s="58"/>
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
@@ -5368,7 +5866,7 @@
       <c r="CE58" s="56"/>
       <c r="CF58" s="68"/>
     </row>
-    <row r="59" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B59" s="54"/>
       <c r="C59" s="50"/>
       <c r="D59" s="50"/>
@@ -5434,7 +5932,7 @@
       <c r="CE59" s="59"/>
       <c r="CF59" s="67"/>
     </row>
-    <row r="60" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B60" s="54"/>
       <c r="C60" s="50"/>
       <c r="D60" s="50"/>
@@ -5500,7 +5998,7 @@
       <c r="CE60" s="50"/>
       <c r="CF60" s="52"/>
     </row>
-    <row r="61" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B61" s="61"/>
       <c r="C61" s="62"/>
       <c r="D61" s="62"/>
@@ -5566,7 +6064,7 @@
       <c r="CE61" s="50"/>
       <c r="CF61" s="52"/>
     </row>
-    <row r="62" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:86" x14ac:dyDescent="0.25">
       <c r="BA62" s="61"/>
       <c r="BB62" s="62"/>
       <c r="BC62" s="62"/>
@@ -5600,7 +6098,7 @@
       <c r="CE62" s="62"/>
       <c r="CF62" s="69"/>
     </row>
-    <row r="64" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:86" x14ac:dyDescent="0.25">
       <c r="B64" s="29"/>
       <c r="C64" s="31"/>
       <c r="D64" s="32"/>
@@ -5666,7 +6164,7 @@
       <c r="CE64" s="30"/>
       <c r="CF64" s="33"/>
     </row>
-    <row r="65" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B65" s="36"/>
       <c r="C65" s="28"/>
       <c r="D65" s="26"/>
@@ -5732,7 +6230,7 @@
       <c r="CE65" s="27"/>
       <c r="CF65" s="37"/>
     </row>
-    <row r="66" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B66" s="38"/>
       <c r="C66" s="22"/>
       <c r="D66" s="20"/>
@@ -5798,7 +6296,7 @@
       <c r="CE66" s="21"/>
       <c r="CF66" s="39"/>
     </row>
-    <row r="67" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B67" s="34"/>
       <c r="C67" s="25"/>
       <c r="D67" s="23"/>
@@ -5864,7 +6362,7 @@
       <c r="CE67" s="24"/>
       <c r="CF67" s="35"/>
     </row>
-    <row r="68" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B68" s="36"/>
       <c r="C68" s="28"/>
       <c r="D68" s="26"/>
@@ -5930,7 +6428,7 @@
       <c r="CE68" s="24"/>
       <c r="CF68" s="35"/>
     </row>
-    <row r="69" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B69" s="38"/>
       <c r="C69" s="22"/>
       <c r="D69" s="20"/>
@@ -5996,7 +6494,7 @@
       <c r="CE69" s="27"/>
       <c r="CF69" s="37"/>
     </row>
-    <row r="70" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B70" s="34"/>
       <c r="C70" s="25"/>
       <c r="D70" s="23"/>
@@ -6062,7 +6560,7 @@
       <c r="CE70" s="21"/>
       <c r="CF70" s="39"/>
     </row>
-    <row r="71" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B71" s="36"/>
       <c r="C71" s="28"/>
       <c r="D71" s="26"/>
@@ -6128,7 +6626,7 @@
       <c r="CE71" s="24"/>
       <c r="CF71" s="35"/>
     </row>
-    <row r="72" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B72" s="38"/>
       <c r="C72" s="22"/>
       <c r="D72" s="20"/>
@@ -6194,7 +6692,7 @@
       <c r="CE72" s="24"/>
       <c r="CF72" s="35"/>
     </row>
-    <row r="73" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B73" s="34"/>
       <c r="C73" s="25"/>
       <c r="D73" s="23"/>
@@ -6260,7 +6758,7 @@
       <c r="CE73" s="27"/>
       <c r="CF73" s="37"/>
     </row>
-    <row r="74" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B74" s="36"/>
       <c r="C74" s="28"/>
       <c r="D74" s="26"/>
@@ -6293,8 +6791,8 @@
       <c r="AE74" s="27"/>
       <c r="AF74" s="27"/>
       <c r="AG74" s="37"/>
-      <c r="AH74" s="130" t="s">
-        <v>9</v>
+      <c r="AH74" s="129" t="s">
+        <v>7</v>
       </c>
       <c r="BA74" s="38"/>
       <c r="BB74" s="21"/>
@@ -6329,7 +6827,7 @@
       <c r="CE74" s="21"/>
       <c r="CF74" s="39"/>
     </row>
-    <row r="75" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B75" s="38"/>
       <c r="C75" s="22"/>
       <c r="D75" s="20"/>
@@ -6362,7 +6860,11 @@
       <c r="AE75" s="21"/>
       <c r="AF75" s="21"/>
       <c r="AG75" s="39"/>
-      <c r="AH75" s="130"/>
+      <c r="AH75" s="129"/>
+      <c r="AK75" s="103">
+        <v>40</v>
+      </c>
+      <c r="AL75" s="103"/>
       <c r="BA75" s="34"/>
       <c r="BB75" s="24"/>
       <c r="BC75" s="24"/>
@@ -6395,8 +6897,12 @@
       <c r="CD75" s="24"/>
       <c r="CE75" s="24"/>
       <c r="CF75" s="35"/>
-    </row>
-    <row r="76" spans="2:84" x14ac:dyDescent="0.25">
+      <c r="CG75" s="188">
+        <v>24</v>
+      </c>
+      <c r="CH75" s="103"/>
+    </row>
+    <row r="76" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B76" s="34"/>
       <c r="C76" s="25"/>
       <c r="D76" s="23"/>
@@ -6429,7 +6935,7 @@
       <c r="AE76" s="24"/>
       <c r="AF76" s="24"/>
       <c r="AG76" s="35"/>
-      <c r="AH76" s="130"/>
+      <c r="AH76" s="129"/>
       <c r="BA76" s="34"/>
       <c r="BB76" s="24"/>
       <c r="BC76" s="24"/>
@@ -6463,7 +6969,7 @@
       <c r="CE76" s="24"/>
       <c r="CF76" s="35"/>
     </row>
-    <row r="77" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B77" s="36"/>
       <c r="C77" s="28"/>
       <c r="D77" s="26"/>
@@ -6496,7 +7002,10 @@
       <c r="AE77" s="27"/>
       <c r="AF77" s="27"/>
       <c r="AG77" s="37"/>
-      <c r="AH77" s="130"/>
+      <c r="AH77" s="129"/>
+      <c r="AK77">
+        <v>8</v>
+      </c>
       <c r="BA77" s="36"/>
       <c r="BB77" s="27"/>
       <c r="BC77" s="27"/>
@@ -6530,7 +7039,7 @@
       <c r="CE77" s="27"/>
       <c r="CF77" s="37"/>
     </row>
-    <row r="78" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B78" s="38"/>
       <c r="C78" s="22"/>
       <c r="D78" s="20"/>
@@ -6596,7 +7105,7 @@
       <c r="CE78" s="21"/>
       <c r="CF78" s="39"/>
     </row>
-    <row r="79" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B79" s="34"/>
       <c r="C79" s="25"/>
       <c r="D79" s="23"/>
@@ -6662,7 +7171,7 @@
       <c r="CE79" s="24"/>
       <c r="CF79" s="35"/>
     </row>
-    <row r="80" spans="2:84" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:86" x14ac:dyDescent="0.25">
       <c r="B80" s="36"/>
       <c r="C80" s="28"/>
       <c r="D80" s="26"/>
@@ -7322,15 +7831,15 @@
       <c r="CE89" s="41"/>
       <c r="CF89" s="44"/>
     </row>
-    <row r="99" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="L99" s="90">
+    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="L99" s="102">
         <v>2700</v>
       </c>
-      <c r="M99" s="90"/>
-      <c r="N99" s="90"/>
-      <c r="O99" s="90"/>
-    </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="M99" s="102"/>
+      <c r="N99" s="102"/>
+      <c r="O99" s="102"/>
+    </row>
+    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B100" s="53"/>
       <c r="C100" s="46"/>
       <c r="D100" s="46"/>
@@ -7359,7 +7868,7 @@
       <c r="AA100" s="46"/>
       <c r="AB100" s="48"/>
     </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" s="54"/>
       <c r="C101" s="50"/>
       <c r="D101" s="50"/>
@@ -7388,7 +7897,7 @@
       <c r="AA101" s="50"/>
       <c r="AB101" s="52"/>
     </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B102" s="54"/>
       <c r="C102" s="50"/>
       <c r="D102" s="50"/>
@@ -7417,7 +7926,7 @@
       <c r="AA102" s="50"/>
       <c r="AB102" s="52"/>
     </row>
-    <row r="103" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B103" s="55"/>
       <c r="C103" s="56"/>
       <c r="D103" s="56"/>
@@ -7445,11 +7954,14 @@
       <c r="Z103" s="65"/>
       <c r="AA103" s="56"/>
       <c r="AB103" s="68"/>
-      <c r="AC103" s="117" t="s">
-        <v>10</v>
+      <c r="AC103" s="99" t="s">
+        <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AH103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B104" s="58"/>
       <c r="C104" s="59"/>
       <c r="D104" s="59"/>
@@ -7477,9 +7989,9 @@
       <c r="Z104" s="64"/>
       <c r="AA104" s="59"/>
       <c r="AB104" s="67"/>
-      <c r="AC104" s="117"/>
-    </row>
-    <row r="105" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC104" s="99"/>
+    </row>
+    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B105" s="54"/>
       <c r="C105" s="50"/>
       <c r="D105" s="50"/>
@@ -7507,9 +8019,9 @@
       <c r="Z105" s="49"/>
       <c r="AA105" s="50"/>
       <c r="AB105" s="52"/>
-      <c r="AC105" s="117"/>
-    </row>
-    <row r="106" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC105" s="99"/>
+    </row>
+    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B106" s="54"/>
       <c r="C106" s="50"/>
       <c r="D106" s="50"/>
@@ -7537,9 +8049,9 @@
       <c r="Z106" s="49"/>
       <c r="AA106" s="50"/>
       <c r="AB106" s="52"/>
-      <c r="AC106" s="117"/>
-    </row>
-    <row r="107" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC106" s="99"/>
+    </row>
+    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B107" s="61"/>
       <c r="C107" s="62"/>
       <c r="D107" s="62"/>
@@ -7569,7 +8081,14 @@
       <c r="AB107" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="16">
+    <mergeCell ref="AK75:AL75"/>
+    <mergeCell ref="CG75:CH75"/>
+    <mergeCell ref="AJ49:AK49"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="CG50:CH50"/>
     <mergeCell ref="AC103:AC106"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A15:A21"/>
@@ -7589,8 +8108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657E32AA-C98F-4947-9A13-08AF1D1FAB39}">
   <dimension ref="A2:BG146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BM110" sqref="BM110"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN162" sqref="AN162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7599,12 +8118,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="N2" s="91" t="s">
-        <v>7</v>
+      <c r="N2" s="103" t="s">
+        <v>5</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
     </row>
     <row r="3" spans="2:59" x14ac:dyDescent="0.25">
       <c r="N3" s="5"/>
@@ -7715,7 +8234,7 @@
       <c r="AP6" s="25"/>
     </row>
     <row r="7" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="N7" s="94">
+      <c r="N7" s="106">
         <v>1100</v>
       </c>
       <c r="O7" s="24"/>
@@ -7742,17 +8261,17 @@
       <c r="AN7" s="24"/>
       <c r="AO7" s="24"/>
       <c r="AP7" s="25"/>
-      <c r="AX7" s="90" t="s">
-        <v>11</v>
+      <c r="AX7" s="102" t="s">
+        <v>9</v>
       </c>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="90"/>
-      <c r="BB7" s="90"/>
-      <c r="BC7" s="90"/>
+      <c r="AY7" s="102"/>
+      <c r="AZ7" s="102"/>
+      <c r="BA7" s="102"/>
+      <c r="BB7" s="102"/>
+      <c r="BC7" s="102"/>
     </row>
     <row r="8" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="N8" s="94"/>
+      <c r="N8" s="106"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
@@ -7792,7 +8311,7 @@
       <c r="BG8" s="3"/>
     </row>
     <row r="9" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="N9" s="94"/>
+      <c r="N9" s="106"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
@@ -7821,7 +8340,7 @@
       <c r="BG9" s="5"/>
     </row>
     <row r="10" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="N10" s="94"/>
+      <c r="N10" s="106"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -7898,6 +8417,9 @@
       <c r="AD12" s="24"/>
       <c r="AE12" s="24"/>
       <c r="AF12" s="25"/>
+      <c r="AG12" t="s">
+        <v>28</v>
+      </c>
       <c r="AK12" s="23"/>
       <c r="AL12" s="24"/>
       <c r="AM12" s="24"/>
@@ -7940,12 +8462,12 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="90">
+      <c r="E14" s="102">
         <v>1300</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -8050,7 +8572,7 @@
       <c r="BG16" s="5"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A17" s="130">
+      <c r="A17" s="129">
         <v>700</v>
       </c>
       <c r="B17" s="25"/>
@@ -8088,7 +8610,7 @@
       <c r="BG17" s="5"/>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="25"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
@@ -8124,7 +8646,7 @@
       <c r="BG18" s="5"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="25"/>
       <c r="C19" s="23"/>
       <c r="D19" s="24"/>
@@ -8238,145 +8760,145 @@
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="E25" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="90">
+      <c r="H25" s="102">
         <v>1100</v>
       </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
       <c r="S25" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
-      <c r="V25" s="90">
+      <c r="V25" s="102">
         <v>1300</v>
       </c>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
       <c r="AE25" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="19"/>
-      <c r="AI25" s="90">
+      <c r="AI25" s="102">
         <v>1100</v>
       </c>
-      <c r="AJ25" s="90"/>
-      <c r="AK25" s="90"/>
+      <c r="AJ25" s="102"/>
+      <c r="AK25" s="102"/>
       <c r="AS25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
-      <c r="AV25" s="90">
+      <c r="AV25" s="102">
         <v>1300</v>
       </c>
-      <c r="AW25" s="90"/>
-      <c r="AX25" s="90"/>
+      <c r="AW25" s="102"/>
+      <c r="AX25" s="102"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="33"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="33"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="33"/>
-      <c r="AN26" s="75"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="30"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="30"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="30"/>
-      <c r="AW26" s="30"/>
-      <c r="AX26" s="30"/>
-      <c r="AY26" s="30"/>
-      <c r="AZ26" s="33"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="48"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="48"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="48"/>
+      <c r="AN26" s="92"/>
+      <c r="AO26" s="45"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="46"/>
+      <c r="AS26" s="46"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="45"/>
+      <c r="AV26" s="46"/>
+      <c r="AW26" s="46"/>
+      <c r="AX26" s="46"/>
+      <c r="AY26" s="46"/>
+      <c r="AZ26" s="48"/>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="37"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="37"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="35"/>
-      <c r="AN27" s="78"/>
-      <c r="AO27" s="23"/>
-      <c r="AP27" s="24"/>
-      <c r="AQ27" s="24"/>
-      <c r="AR27" s="24"/>
-      <c r="AS27" s="24"/>
-      <c r="AT27" s="25"/>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="27"/>
-      <c r="AW27" s="27"/>
-      <c r="AX27" s="27"/>
-      <c r="AY27" s="27"/>
-      <c r="AZ27" s="37"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="68"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="68"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="50"/>
+      <c r="AJ27" s="50"/>
+      <c r="AK27" s="50"/>
+      <c r="AL27" s="52"/>
+      <c r="AN27" s="94"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="50"/>
+      <c r="AQ27" s="50"/>
+      <c r="AR27" s="50"/>
+      <c r="AS27" s="50"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="65"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="68"/>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
@@ -8390,7 +8912,7 @@
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="39"/>
-      <c r="N28" s="77"/>
+      <c r="N28" s="76"/>
       <c r="O28" s="20"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
@@ -8434,7 +8956,7 @@
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" s="35"/>
-      <c r="N29" s="78"/>
+      <c r="N29" s="77"/>
       <c r="O29" s="23"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
@@ -8478,7 +9000,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="35"/>
-      <c r="N30" s="78"/>
+      <c r="N30" s="77"/>
       <c r="O30" s="23"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
@@ -8522,7 +9044,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" s="35"/>
-      <c r="N31" s="78"/>
+      <c r="N31" s="77"/>
       <c r="O31" s="23"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
@@ -8566,7 +9088,7 @@
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="35"/>
-      <c r="N32" s="78"/>
+      <c r="N32" s="77"/>
       <c r="O32" s="23"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
@@ -8610,7 +9132,7 @@
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" s="35"/>
-      <c r="N33" s="78"/>
+      <c r="N33" s="77"/>
       <c r="O33" s="23"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
@@ -8654,7 +9176,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="35"/>
-      <c r="N34" s="78"/>
+      <c r="N34" s="77"/>
       <c r="O34" s="23"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
@@ -8698,7 +9220,7 @@
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="35"/>
-      <c r="N35" s="78"/>
+      <c r="N35" s="77"/>
       <c r="O35" s="23"/>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
@@ -8731,7 +9253,7 @@
       <c r="AZ35" s="35"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A36" s="93">
+      <c r="A36" s="105">
         <v>2600</v>
       </c>
       <c r="B36" s="34"/>
@@ -8745,7 +9267,7 @@
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="35"/>
-      <c r="N36" s="78"/>
+      <c r="N36" s="77"/>
       <c r="O36" s="23"/>
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
@@ -8778,7 +9300,7 @@
       <c r="AZ36" s="35"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="34"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -8790,7 +9312,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="35"/>
-      <c r="N37" s="78"/>
+      <c r="N37" s="77"/>
       <c r="O37" s="23"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
@@ -8823,7 +9345,7 @@
       <c r="AZ37" s="35"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="34"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -8835,7 +9357,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="35"/>
-      <c r="N38" s="78"/>
+      <c r="N38" s="77"/>
       <c r="O38" s="23"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
@@ -8868,7 +9390,7 @@
       <c r="AZ38" s="35"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="36"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -8880,7 +9402,7 @@
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
       <c r="L39" s="37"/>
-      <c r="N39" s="76"/>
+      <c r="N39" s="75"/>
       <c r="O39" s="26"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="27"/>
@@ -8913,7 +9435,7 @@
       <c r="AZ39" s="37"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="38"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -8925,7 +9447,7 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="39"/>
-      <c r="N40" s="77"/>
+      <c r="N40" s="76"/>
       <c r="O40" s="20"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
@@ -8958,7 +9480,7 @@
       <c r="AZ40" s="39"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="34"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -8970,7 +9492,7 @@
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
       <c r="L41" s="35"/>
-      <c r="N41" s="78"/>
+      <c r="N41" s="77"/>
       <c r="O41" s="23"/>
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
@@ -9003,7 +9525,7 @@
       <c r="AZ41" s="35"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" s="93"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="34"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -9015,7 +9537,7 @@
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="35"/>
-      <c r="N42" s="78"/>
+      <c r="N42" s="77"/>
       <c r="O42" s="23"/>
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
@@ -9059,7 +9581,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
       <c r="L43" s="35"/>
-      <c r="N43" s="78"/>
+      <c r="N43" s="77"/>
       <c r="O43" s="23"/>
       <c r="P43" s="24"/>
       <c r="Q43" s="24"/>
@@ -9103,7 +9625,7 @@
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="35"/>
-      <c r="N44" s="78"/>
+      <c r="N44" s="77"/>
       <c r="O44" s="23"/>
       <c r="P44" s="24"/>
       <c r="Q44" s="24"/>
@@ -9147,7 +9669,7 @@
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
       <c r="L45" s="35"/>
-      <c r="N45" s="78"/>
+      <c r="N45" s="77"/>
       <c r="O45" s="23"/>
       <c r="P45" s="24"/>
       <c r="Q45" s="24"/>
@@ -9191,7 +9713,7 @@
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" s="35"/>
-      <c r="N46" s="78"/>
+      <c r="N46" s="77"/>
       <c r="O46" s="23"/>
       <c r="P46" s="24"/>
       <c r="Q46" s="24"/>
@@ -9235,7 +9757,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
       <c r="L47" s="35"/>
-      <c r="N47" s="78"/>
+      <c r="N47" s="77"/>
       <c r="O47" s="23"/>
       <c r="P47" s="24"/>
       <c r="Q47" s="24"/>
@@ -9279,7 +9801,7 @@
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="35"/>
-      <c r="N48" s="78"/>
+      <c r="N48" s="77"/>
       <c r="O48" s="23"/>
       <c r="P48" s="24"/>
       <c r="Q48" s="24"/>
@@ -9323,7 +9845,7 @@
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
       <c r="L49" s="35"/>
-      <c r="N49" s="78"/>
+      <c r="N49" s="77"/>
       <c r="O49" s="23"/>
       <c r="P49" s="24"/>
       <c r="Q49" s="24"/>
@@ -9367,7 +9889,7 @@
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="35"/>
-      <c r="N50" s="78"/>
+      <c r="N50" s="77"/>
       <c r="O50" s="23"/>
       <c r="P50" s="24"/>
       <c r="Q50" s="24"/>
@@ -9411,7 +9933,7 @@
       <c r="J51" s="41"/>
       <c r="K51" s="41"/>
       <c r="L51" s="44"/>
-      <c r="N51" s="79"/>
+      <c r="N51" s="78"/>
       <c r="O51" s="43"/>
       <c r="P51" s="41"/>
       <c r="Q51" s="41"/>
@@ -9451,101 +9973,101 @@
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
-      <c r="K54" s="90">
+      <c r="K54" s="102">
         <v>1300</v>
       </c>
-      <c r="L54" s="90"/>
-      <c r="M54" s="90"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="102"/>
       <c r="T54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
-      <c r="X54" s="91">
+      <c r="X54" s="103">
         <v>700</v>
       </c>
-      <c r="Y54" s="91"/>
-      <c r="AF54" s="91" t="s">
-        <v>16</v>
+      <c r="Y54" s="103"/>
+      <c r="AF54" s="103" t="s">
+        <v>14</v>
       </c>
-      <c r="AG54" s="91"/>
-      <c r="AH54" s="91"/>
-      <c r="AI54" s="91"/>
-      <c r="AK54" s="90">
+      <c r="AG54" s="103"/>
+      <c r="AH54" s="103"/>
+      <c r="AI54" s="103"/>
+      <c r="AK54" s="102">
         <v>1300</v>
       </c>
-      <c r="AL54" s="90"/>
-      <c r="AM54" s="90"/>
+      <c r="AL54" s="102"/>
+      <c r="AM54" s="102"/>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="80"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="23"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
-      <c r="AG55" s="30"/>
-      <c r="AH55" s="31"/>
-      <c r="AI55" s="29"/>
-      <c r="AJ55" s="30"/>
-      <c r="AK55" s="30"/>
-      <c r="AL55" s="30"/>
-      <c r="AM55" s="30"/>
-      <c r="AN55" s="31"/>
-      <c r="AO55" s="85"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="88"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="50"/>
+      <c r="W55" s="50"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="49"/>
+      <c r="AC55" s="53"/>
+      <c r="AD55" s="46"/>
+      <c r="AE55" s="46"/>
+      <c r="AF55" s="46"/>
+      <c r="AG55" s="46"/>
+      <c r="AH55" s="47"/>
+      <c r="AI55" s="53"/>
+      <c r="AJ55" s="46"/>
+      <c r="AK55" s="46"/>
+      <c r="AL55" s="46"/>
+      <c r="AM55" s="46"/>
+      <c r="AN55" s="47"/>
+      <c r="AO55" s="90"/>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B56" s="36"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="81"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="26"/>
-      <c r="AC56" s="36"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
-      <c r="AF56" s="27"/>
-      <c r="AG56" s="27"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="36"/>
-      <c r="AJ56" s="27"/>
-      <c r="AK56" s="27"/>
-      <c r="AL56" s="27"/>
-      <c r="AM56" s="27"/>
-      <c r="AN56" s="28"/>
-      <c r="AO56" s="86"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="89"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
+      <c r="X56" s="57"/>
+      <c r="Y56" s="65"/>
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="56"/>
+      <c r="AE56" s="56"/>
+      <c r="AF56" s="56"/>
+      <c r="AG56" s="56"/>
+      <c r="AH56" s="57"/>
+      <c r="AI56" s="55"/>
+      <c r="AJ56" s="56"/>
+      <c r="AK56" s="56"/>
+      <c r="AL56" s="56"/>
+      <c r="AM56" s="56"/>
+      <c r="AN56" s="57"/>
+      <c r="AO56" s="91"/>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B57" s="38"/>
@@ -9560,7 +10082,7 @@
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
       <c r="M57" s="22"/>
-      <c r="N57" s="82"/>
+      <c r="N57" s="80"/>
       <c r="S57" s="20"/>
       <c r="T57" s="21"/>
       <c r="U57" s="21"/>
@@ -9580,7 +10102,7 @@
       <c r="AL57" s="21"/>
       <c r="AM57" s="21"/>
       <c r="AN57" s="22"/>
-      <c r="AO57" s="87"/>
+      <c r="AO57" s="83"/>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B58" s="34"/>
@@ -9595,7 +10117,7 @@
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
       <c r="M58" s="25"/>
-      <c r="N58" s="83"/>
+      <c r="N58" s="81"/>
       <c r="S58" s="23"/>
       <c r="T58" s="24"/>
       <c r="U58" s="24"/>
@@ -9615,7 +10137,7 @@
       <c r="AL58" s="24"/>
       <c r="AM58" s="24"/>
       <c r="AN58" s="25"/>
-      <c r="AO58" s="88"/>
+      <c r="AO58" s="84"/>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B59" s="34"/>
@@ -9630,7 +10152,7 @@
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
       <c r="M59" s="25"/>
-      <c r="N59" s="83"/>
+      <c r="N59" s="81"/>
       <c r="S59" s="23"/>
       <c r="T59" s="24"/>
       <c r="U59" s="24"/>
@@ -9659,7 +10181,7 @@
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
       <c r="M60" s="25"/>
-      <c r="N60" s="83"/>
+      <c r="N60" s="81"/>
       <c r="S60" s="23"/>
       <c r="T60" s="24"/>
       <c r="U60" s="24"/>
@@ -9688,7 +10210,7 @@
       <c r="K61" s="24"/>
       <c r="L61" s="24"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="83"/>
+      <c r="N61" s="81"/>
       <c r="S61" s="23"/>
       <c r="T61" s="24"/>
       <c r="U61" s="24"/>
@@ -9717,7 +10239,7 @@
       <c r="K62" s="24"/>
       <c r="L62" s="24"/>
       <c r="M62" s="25"/>
-      <c r="N62" s="83"/>
+      <c r="N62" s="81"/>
       <c r="S62" s="23"/>
       <c r="T62" s="24"/>
       <c r="U62" s="24"/>
@@ -9734,7 +10256,7 @@
       <c r="AO62" s="5"/>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A63" s="93">
+      <c r="A63" s="105">
         <v>2600</v>
       </c>
       <c r="B63" s="34"/>
@@ -9749,7 +10271,7 @@
       <c r="K63" s="24"/>
       <c r="L63" s="24"/>
       <c r="M63" s="25"/>
-      <c r="N63" s="83"/>
+      <c r="N63" s="81"/>
       <c r="S63" s="23"/>
       <c r="T63" s="24"/>
       <c r="U63" s="24"/>
@@ -9766,7 +10288,7 @@
       <c r="AO63" s="5"/>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A64" s="93"/>
+      <c r="A64" s="105"/>
       <c r="B64" s="34"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
@@ -9779,7 +10301,7 @@
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
       <c r="M64" s="25"/>
-      <c r="N64" s="83"/>
+      <c r="N64" s="81"/>
       <c r="S64" s="23"/>
       <c r="T64" s="24"/>
       <c r="U64" s="24"/>
@@ -9796,7 +10318,7 @@
       <c r="AO64" s="5"/>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A65" s="93"/>
+      <c r="A65" s="105"/>
       <c r="B65" s="34"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -9809,7 +10331,7 @@
       <c r="K65" s="24"/>
       <c r="L65" s="24"/>
       <c r="M65" s="25"/>
-      <c r="N65" s="83"/>
+      <c r="N65" s="81"/>
       <c r="S65" s="23"/>
       <c r="T65" s="24"/>
       <c r="U65" s="24"/>
@@ -9826,7 +10348,7 @@
       <c r="AO65" s="5"/>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A66" s="93"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="34"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
@@ -9839,7 +10361,7 @@
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
       <c r="M66" s="25"/>
-      <c r="N66" s="83"/>
+      <c r="N66" s="81"/>
       <c r="S66" s="23"/>
       <c r="T66" s="24"/>
       <c r="U66" s="24"/>
@@ -9856,7 +10378,7 @@
       <c r="AO66" s="5"/>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A67" s="93"/>
+      <c r="A67" s="105"/>
       <c r="B67" s="34"/>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
@@ -9869,7 +10391,7 @@
       <c r="K67" s="24"/>
       <c r="L67" s="24"/>
       <c r="M67" s="25"/>
-      <c r="N67" s="83"/>
+      <c r="N67" s="81"/>
       <c r="S67" s="23"/>
       <c r="T67" s="24"/>
       <c r="U67" s="24"/>
@@ -9886,7 +10408,7 @@
       <c r="AO67" s="5"/>
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A68" s="93"/>
+      <c r="A68" s="105"/>
       <c r="B68" s="36"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -9899,7 +10421,7 @@
       <c r="K68" s="27"/>
       <c r="L68" s="27"/>
       <c r="M68" s="28"/>
-      <c r="N68" s="81"/>
+      <c r="N68" s="79"/>
       <c r="S68" s="26"/>
       <c r="T68" s="27"/>
       <c r="U68" s="27"/>
@@ -9916,7 +10438,7 @@
       <c r="AO68" s="5"/>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A69" s="93"/>
+      <c r="A69" s="105"/>
       <c r="B69" s="38"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
@@ -9929,7 +10451,7 @@
       <c r="K69" s="21"/>
       <c r="L69" s="21"/>
       <c r="M69" s="22"/>
-      <c r="N69" s="82"/>
+      <c r="N69" s="80"/>
       <c r="S69" s="20"/>
       <c r="T69" s="21"/>
       <c r="U69" s="21"/>
@@ -9958,7 +10480,7 @@
       <c r="K70" s="24"/>
       <c r="L70" s="24"/>
       <c r="M70" s="25"/>
-      <c r="N70" s="83"/>
+      <c r="N70" s="81"/>
       <c r="S70" s="23"/>
       <c r="T70" s="24"/>
       <c r="U70" s="24"/>
@@ -9987,7 +10509,7 @@
       <c r="K71" s="24"/>
       <c r="L71" s="24"/>
       <c r="M71" s="25"/>
-      <c r="N71" s="83"/>
+      <c r="N71" s="81"/>
       <c r="S71" s="23"/>
       <c r="T71" s="24"/>
       <c r="U71" s="24"/>
@@ -10016,7 +10538,7 @@
       <c r="K72" s="24"/>
       <c r="L72" s="24"/>
       <c r="M72" s="25"/>
-      <c r="N72" s="83"/>
+      <c r="N72" s="81"/>
       <c r="S72" s="23"/>
       <c r="T72" s="24"/>
       <c r="U72" s="24"/>
@@ -10045,7 +10567,7 @@
       <c r="K73" s="24"/>
       <c r="L73" s="24"/>
       <c r="M73" s="25"/>
-      <c r="N73" s="83"/>
+      <c r="N73" s="81"/>
       <c r="S73" s="23"/>
       <c r="T73" s="24"/>
       <c r="U73" s="24"/>
@@ -10074,7 +10596,7 @@
       <c r="K74" s="24"/>
       <c r="L74" s="24"/>
       <c r="M74" s="25"/>
-      <c r="N74" s="83"/>
+      <c r="N74" s="81"/>
       <c r="S74" s="23"/>
       <c r="T74" s="24"/>
       <c r="U74" s="24"/>
@@ -10103,7 +10625,7 @@
       <c r="K75" s="24"/>
       <c r="L75" s="24"/>
       <c r="M75" s="25"/>
-      <c r="N75" s="83"/>
+      <c r="N75" s="81"/>
       <c r="S75" s="23"/>
       <c r="T75" s="24"/>
       <c r="U75" s="24"/>
@@ -10132,7 +10654,7 @@
       <c r="K76" s="24"/>
       <c r="L76" s="24"/>
       <c r="M76" s="25"/>
-      <c r="N76" s="83"/>
+      <c r="N76" s="81"/>
       <c r="S76" s="23"/>
       <c r="T76" s="24"/>
       <c r="U76" s="24"/>
@@ -10161,7 +10683,7 @@
       <c r="K77" s="24"/>
       <c r="L77" s="24"/>
       <c r="M77" s="25"/>
-      <c r="N77" s="83"/>
+      <c r="N77" s="81"/>
       <c r="S77" s="23"/>
       <c r="T77" s="24"/>
       <c r="U77" s="24"/>
@@ -10190,7 +10712,7 @@
       <c r="K78" s="24"/>
       <c r="L78" s="24"/>
       <c r="M78" s="25"/>
-      <c r="N78" s="83"/>
+      <c r="N78" s="81"/>
       <c r="S78" s="23"/>
       <c r="T78" s="24"/>
       <c r="U78" s="24"/>
@@ -10219,7 +10741,7 @@
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
       <c r="M79" s="25"/>
-      <c r="N79" s="83"/>
+      <c r="N79" s="81"/>
       <c r="S79" s="23"/>
       <c r="T79" s="24"/>
       <c r="U79" s="24"/>
@@ -10248,7 +10770,7 @@
       <c r="K80" s="41"/>
       <c r="L80" s="41"/>
       <c r="M80" s="42"/>
-      <c r="N80" s="84"/>
+      <c r="N80" s="82"/>
       <c r="S80" s="26"/>
       <c r="T80" s="27"/>
       <c r="U80" s="27"/>
@@ -10272,28 +10794,28 @@
     </row>
     <row r="89" spans="2:41" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="102">
+        <v>1200</v>
+      </c>
+      <c r="J89" s="102"/>
+      <c r="K89" s="102"/>
+      <c r="T89" t="s">
         <v>19</v>
       </c>
-      <c r="I89" s="90">
+      <c r="Y89" s="102">
+        <v>1100</v>
+      </c>
+      <c r="Z89" s="102"/>
+      <c r="AH89" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL89" s="102">
         <v>1200</v>
       </c>
-      <c r="J89" s="90"/>
-      <c r="K89" s="90"/>
-      <c r="T89" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y89" s="90">
-        <v>1100</v>
-      </c>
-      <c r="Z89" s="90"/>
-      <c r="AH89" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL89" s="90">
-        <v>1200</v>
-      </c>
-      <c r="AM89" s="90"/>
-      <c r="AN89" s="90"/>
+      <c r="AM89" s="102"/>
+      <c r="AN89" s="102"/>
     </row>
     <row r="90" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
@@ -10343,193 +10865,400 @@
     <row r="92" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="M92" s="5"/>
-      <c r="Q92" s="4"/>
-      <c r="AA92" s="5"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="21"/>
+      <c r="Z92" s="21"/>
+      <c r="AA92" s="21"/>
       <c r="AD92" s="4"/>
       <c r="AO92" s="5"/>
     </row>
     <row r="93" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="M93" s="5"/>
-      <c r="Q93" s="4"/>
-      <c r="AA93" s="5"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24"/>
+      <c r="T93" s="24"/>
+      <c r="U93" s="24"/>
+      <c r="V93" s="25"/>
+      <c r="W93" s="34"/>
+      <c r="X93" s="24"/>
+      <c r="Y93" s="24"/>
+      <c r="Z93" s="24"/>
+      <c r="AA93" s="24"/>
       <c r="AD93" s="4"/>
       <c r="AO93" s="5"/>
     </row>
     <row r="94" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="M94" s="5"/>
-      <c r="Q94" s="4"/>
-      <c r="AA94" s="5"/>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="24"/>
+      <c r="T94" s="24"/>
+      <c r="U94" s="24"/>
+      <c r="V94" s="25"/>
+      <c r="W94" s="34"/>
+      <c r="X94" s="24"/>
+      <c r="Y94" s="24"/>
+      <c r="Z94" s="24"/>
+      <c r="AA94" s="24"/>
       <c r="AD94" s="4"/>
       <c r="AO94" s="5"/>
     </row>
     <row r="95" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="M95" s="5"/>
-      <c r="Q95" s="4"/>
-      <c r="AA95" s="5"/>
+      <c r="Q95" s="34"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24"/>
+      <c r="T95" s="24"/>
+      <c r="U95" s="24"/>
+      <c r="V95" s="25"/>
+      <c r="W95" s="34"/>
+      <c r="X95" s="24"/>
+      <c r="Y95" s="24"/>
+      <c r="Z95" s="24"/>
+      <c r="AA95" s="24"/>
       <c r="AD95" s="4"/>
       <c r="AO95" s="5"/>
     </row>
     <row r="96" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="M96" s="5"/>
-      <c r="Q96" s="4"/>
-      <c r="AA96" s="5"/>
+      <c r="Q96" s="34"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="24"/>
+      <c r="U96" s="24"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="34"/>
+      <c r="X96" s="24"/>
+      <c r="Y96" s="24"/>
+      <c r="Z96" s="24"/>
+      <c r="AA96" s="24"/>
       <c r="AD96" s="4"/>
       <c r="AO96" s="5"/>
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
       <c r="M97" s="5"/>
-      <c r="Q97" s="4"/>
-      <c r="AA97" s="5"/>
+      <c r="Q97" s="34"/>
+      <c r="R97" s="24"/>
+      <c r="S97" s="24"/>
+      <c r="T97" s="24"/>
+      <c r="U97" s="24"/>
+      <c r="V97" s="25"/>
+      <c r="W97" s="34"/>
+      <c r="X97" s="24"/>
+      <c r="Y97" s="24"/>
+      <c r="Z97" s="24"/>
+      <c r="AA97" s="24"/>
       <c r="AD97" s="4"/>
       <c r="AO97" s="5"/>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="M98" s="5"/>
-      <c r="Q98" s="4"/>
-      <c r="AA98" s="5"/>
+      <c r="Q98" s="34"/>
+      <c r="R98" s="24"/>
+      <c r="S98" s="24"/>
+      <c r="T98" s="24"/>
+      <c r="U98" s="24"/>
+      <c r="V98" s="25"/>
+      <c r="W98" s="34"/>
+      <c r="X98" s="24"/>
+      <c r="Y98" s="24"/>
+      <c r="Z98" s="24"/>
+      <c r="AA98" s="24"/>
       <c r="AD98" s="4"/>
       <c r="AO98" s="5"/>
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="M99" s="5"/>
-      <c r="Q99" s="4"/>
-      <c r="AA99" s="5"/>
+      <c r="Q99" s="34"/>
+      <c r="R99" s="24"/>
+      <c r="S99" s="24"/>
+      <c r="T99" s="24"/>
+      <c r="U99" s="24"/>
+      <c r="V99" s="25"/>
+      <c r="W99" s="34"/>
+      <c r="X99" s="24"/>
+      <c r="Y99" s="24"/>
+      <c r="Z99" s="24"/>
+      <c r="AA99" s="24"/>
       <c r="AD99" s="4"/>
       <c r="AO99" s="5"/>
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
       <c r="M100" s="5"/>
-      <c r="Q100" s="4"/>
-      <c r="AA100" s="5"/>
+      <c r="Q100" s="34"/>
+      <c r="R100" s="24"/>
+      <c r="S100" s="24"/>
+      <c r="T100" s="24"/>
+      <c r="U100" s="24"/>
+      <c r="V100" s="25"/>
+      <c r="W100" s="34"/>
+      <c r="X100" s="24"/>
+      <c r="Y100" s="24"/>
+      <c r="Z100" s="24"/>
+      <c r="AA100" s="24"/>
       <c r="AD100" s="4"/>
       <c r="AO100" s="5"/>
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A101" s="93">
+      <c r="A101" s="105">
         <v>2600</v>
       </c>
       <c r="B101" s="4"/>
       <c r="M101" s="5"/>
-      <c r="Q101" s="4"/>
-      <c r="AA101" s="5"/>
+      <c r="Q101" s="34"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="24"/>
+      <c r="T101" s="24"/>
+      <c r="U101" s="24"/>
+      <c r="V101" s="25"/>
+      <c r="W101" s="34"/>
+      <c r="X101" s="24"/>
+      <c r="Y101" s="24"/>
+      <c r="Z101" s="24"/>
+      <c r="AA101" s="24"/>
       <c r="AD101" s="4"/>
       <c r="AO101" s="5"/>
     </row>
     <row r="102" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A102" s="93"/>
+      <c r="A102" s="105"/>
       <c r="B102" s="4"/>
       <c r="M102" s="5"/>
-      <c r="Q102" s="4"/>
-      <c r="AA102" s="5"/>
+      <c r="Q102" s="34"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="24"/>
+      <c r="T102" s="24"/>
+      <c r="U102" s="24"/>
+      <c r="V102" s="25"/>
+      <c r="W102" s="34"/>
+      <c r="X102" s="24"/>
+      <c r="Y102" s="24"/>
+      <c r="Z102" s="24"/>
+      <c r="AA102" s="24"/>
       <c r="AD102" s="4"/>
       <c r="AO102" s="5"/>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A103" s="93"/>
+      <c r="A103" s="105"/>
       <c r="B103" s="4"/>
       <c r="M103" s="5"/>
-      <c r="Q103" s="4"/>
-      <c r="AA103" s="5"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="27"/>
+      <c r="S103" s="27"/>
+      <c r="T103" s="27"/>
+      <c r="U103" s="27"/>
+      <c r="V103" s="28"/>
+      <c r="W103" s="36"/>
+      <c r="X103" s="27"/>
+      <c r="Y103" s="27"/>
+      <c r="Z103" s="27"/>
+      <c r="AA103" s="27"/>
       <c r="AD103" s="4"/>
       <c r="AO103" s="5"/>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A104" s="93"/>
+      <c r="A104" s="105"/>
       <c r="B104" s="4"/>
       <c r="M104" s="5"/>
-      <c r="Q104" s="4"/>
-      <c r="AA104" s="5"/>
+      <c r="Q104" s="38"/>
+      <c r="R104" s="21"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="U104" s="21"/>
+      <c r="V104" s="22"/>
+      <c r="W104" s="38"/>
+      <c r="X104" s="21"/>
+      <c r="Y104" s="21"/>
+      <c r="Z104" s="21"/>
+      <c r="AA104" s="21"/>
       <c r="AD104" s="4"/>
       <c r="AO104" s="5"/>
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A105" s="93"/>
+      <c r="A105" s="105"/>
       <c r="B105" s="4"/>
       <c r="M105" s="5"/>
-      <c r="Q105" s="4"/>
-      <c r="AA105" s="5"/>
+      <c r="Q105" s="34"/>
+      <c r="R105" s="24"/>
+      <c r="S105" s="24"/>
+      <c r="T105" s="24"/>
+      <c r="U105" s="24"/>
+      <c r="V105" s="25"/>
+      <c r="W105" s="34"/>
+      <c r="X105" s="24"/>
+      <c r="Y105" s="24"/>
+      <c r="Z105" s="24"/>
+      <c r="AA105" s="24"/>
       <c r="AD105" s="4"/>
       <c r="AO105" s="5"/>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A106" s="93"/>
+      <c r="A106" s="105"/>
       <c r="B106" s="4"/>
       <c r="M106" s="5"/>
-      <c r="Q106" s="4"/>
-      <c r="AA106" s="5"/>
+      <c r="Q106" s="34"/>
+      <c r="R106" s="24"/>
+      <c r="S106" s="24"/>
+      <c r="T106" s="24"/>
+      <c r="U106" s="24"/>
+      <c r="V106" s="25"/>
+      <c r="W106" s="34"/>
+      <c r="X106" s="24"/>
+      <c r="Y106" s="24"/>
+      <c r="Z106" s="24"/>
+      <c r="AA106" s="24"/>
       <c r="AD106" s="4"/>
       <c r="AO106" s="5"/>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A107" s="93"/>
+      <c r="A107" s="105"/>
       <c r="B107" s="4"/>
       <c r="M107" s="5"/>
-      <c r="Q107" s="4"/>
-      <c r="AA107" s="5"/>
+      <c r="Q107" s="34"/>
+      <c r="R107" s="24"/>
+      <c r="S107" s="24"/>
+      <c r="T107" s="24"/>
+      <c r="U107" s="24"/>
+      <c r="V107" s="25"/>
+      <c r="W107" s="34"/>
+      <c r="X107" s="24"/>
+      <c r="Y107" s="24"/>
+      <c r="Z107" s="24"/>
+      <c r="AA107" s="24"/>
       <c r="AD107" s="4"/>
       <c r="AO107" s="5"/>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="M108" s="5"/>
-      <c r="Q108" s="4"/>
-      <c r="AA108" s="5"/>
+      <c r="Q108" s="34"/>
+      <c r="R108" s="24"/>
+      <c r="S108" s="24"/>
+      <c r="T108" s="24"/>
+      <c r="U108" s="24"/>
+      <c r="V108" s="25"/>
+      <c r="W108" s="34"/>
+      <c r="X108" s="24"/>
+      <c r="Y108" s="24"/>
+      <c r="Z108" s="24"/>
+      <c r="AA108" s="24"/>
       <c r="AD108" s="4"/>
       <c r="AO108" s="5"/>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
       <c r="M109" s="5"/>
-      <c r="Q109" s="4"/>
-      <c r="AA109" s="5"/>
+      <c r="Q109" s="34"/>
+      <c r="R109" s="24"/>
+      <c r="S109" s="24"/>
+      <c r="T109" s="24"/>
+      <c r="U109" s="24"/>
+      <c r="V109" s="25"/>
+      <c r="W109" s="34"/>
+      <c r="X109" s="24"/>
+      <c r="Y109" s="24"/>
+      <c r="Z109" s="24"/>
+      <c r="AA109" s="24"/>
       <c r="AD109" s="4"/>
       <c r="AO109" s="5"/>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="M110" s="5"/>
-      <c r="Q110" s="4"/>
-      <c r="AA110" s="5"/>
+      <c r="Q110" s="34"/>
+      <c r="R110" s="24"/>
+      <c r="S110" s="24"/>
+      <c r="T110" s="24"/>
+      <c r="U110" s="24"/>
+      <c r="V110" s="25"/>
+      <c r="W110" s="34"/>
+      <c r="X110" s="24"/>
+      <c r="Y110" s="24"/>
+      <c r="Z110" s="24"/>
+      <c r="AA110" s="24"/>
       <c r="AD110" s="4"/>
       <c r="AO110" s="5"/>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="M111" s="5"/>
-      <c r="Q111" s="4"/>
-      <c r="AA111" s="5"/>
+      <c r="Q111" s="34"/>
+      <c r="R111" s="24"/>
+      <c r="S111" s="24"/>
+      <c r="T111" s="24"/>
+      <c r="U111" s="24"/>
+      <c r="V111" s="25"/>
+      <c r="W111" s="34"/>
+      <c r="X111" s="24"/>
+      <c r="Y111" s="24"/>
+      <c r="Z111" s="24"/>
+      <c r="AA111" s="24"/>
       <c r="AD111" s="4"/>
       <c r="AO111" s="5"/>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="M112" s="5"/>
-      <c r="Q112" s="4"/>
-      <c r="AA112" s="5"/>
+      <c r="Q112" s="34"/>
+      <c r="R112" s="24"/>
+      <c r="S112" s="24"/>
+      <c r="T112" s="24"/>
+      <c r="U112" s="24"/>
+      <c r="V112" s="25"/>
+      <c r="W112" s="34"/>
+      <c r="X112" s="24"/>
+      <c r="Y112" s="24"/>
+      <c r="Z112" s="24"/>
+      <c r="AA112" s="24"/>
       <c r="AD112" s="4"/>
       <c r="AO112" s="5"/>
     </row>
     <row r="113" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
       <c r="M113" s="5"/>
-      <c r="Q113" s="4"/>
-      <c r="AA113" s="5"/>
+      <c r="Q113" s="34"/>
+      <c r="R113" s="24"/>
+      <c r="S113" s="24"/>
+      <c r="T113" s="24"/>
+      <c r="U113" s="24"/>
+      <c r="V113" s="25"/>
+      <c r="W113" s="34"/>
+      <c r="X113" s="24"/>
+      <c r="Y113" s="24"/>
+      <c r="Z113" s="24"/>
+      <c r="AA113" s="24"/>
       <c r="AD113" s="4"/>
       <c r="AO113" s="5"/>
     </row>
     <row r="114" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
       <c r="M114" s="5"/>
-      <c r="Q114" s="4"/>
-      <c r="AA114" s="5"/>
+      <c r="Q114" s="34"/>
+      <c r="R114" s="24"/>
+      <c r="S114" s="24"/>
+      <c r="T114" s="24"/>
+      <c r="U114" s="24"/>
+      <c r="V114" s="25"/>
+      <c r="W114" s="34"/>
+      <c r="X114" s="24"/>
+      <c r="Y114" s="24"/>
+      <c r="Z114" s="24"/>
+      <c r="AA114" s="24"/>
       <c r="AD114" s="4"/>
       <c r="AO114" s="5"/>
     </row>
@@ -10546,17 +11275,17 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="8"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="7"/>
-      <c r="W115" s="7"/>
-      <c r="X115" s="7"/>
-      <c r="Y115" s="7"/>
-      <c r="Z115" s="7"/>
-      <c r="AA115" s="8"/>
+      <c r="Q115" s="36"/>
+      <c r="R115" s="27"/>
+      <c r="S115" s="27"/>
+      <c r="T115" s="27"/>
+      <c r="U115" s="27"/>
+      <c r="V115" s="28"/>
+      <c r="W115" s="36"/>
+      <c r="X115" s="27"/>
+      <c r="Y115" s="27"/>
+      <c r="Z115" s="27"/>
+      <c r="AA115" s="27"/>
       <c r="AD115" s="6"/>
       <c r="AE115" s="7"/>
       <c r="AF115" s="7"/>
@@ -10572,36 +11301,36 @@
     </row>
     <row r="120" spans="2:48" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="H120" s="90">
+      <c r="H120" s="102">
         <v>800</v>
       </c>
-      <c r="I120" s="90"/>
+      <c r="I120" s="102"/>
       <c r="M120" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="Q120" s="90">
+      <c r="Q120" s="102">
         <v>900</v>
       </c>
-      <c r="R120" s="90"/>
-      <c r="S120" s="90"/>
+      <c r="R120" s="102"/>
+      <c r="S120" s="102"/>
       <c r="X120" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="AE120" s="90">
+      <c r="AE120" s="102">
         <v>1500</v>
       </c>
-      <c r="AF120" s="90"/>
-      <c r="AG120" s="90"/>
+      <c r="AF120" s="102"/>
+      <c r="AG120" s="102"/>
       <c r="AO120" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
-      <c r="AS120" s="90">
+      <c r="AS120" s="102">
         <v>900</v>
       </c>
-      <c r="AT120" s="90"/>
-      <c r="AU120" s="90"/>
+      <c r="AT120" s="102"/>
+      <c r="AU120" s="102"/>
     </row>
     <row r="121" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
@@ -10648,1087 +11377,1054 @@
     </row>
     <row r="122" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
-      <c r="C122" s="132"/>
-      <c r="D122" s="132"/>
-      <c r="E122" s="132"/>
-      <c r="F122" s="132"/>
-      <c r="G122" s="132"/>
-      <c r="H122" s="132"/>
       <c r="I122" s="5"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="132"/>
-      <c r="N122" s="132"/>
-      <c r="O122" s="132"/>
-      <c r="P122" s="132"/>
-      <c r="Q122" s="132"/>
-      <c r="R122" s="132"/>
-      <c r="S122" s="132"/>
       <c r="T122" s="5"/>
       <c r="W122" s="4"/>
-      <c r="X122" s="132"/>
-      <c r="Y122" s="132"/>
-      <c r="Z122" s="132"/>
-      <c r="AA122" s="132"/>
-      <c r="AB122" s="132"/>
-      <c r="AC122" s="132"/>
-      <c r="AD122" s="132"/>
-      <c r="AE122" s="132"/>
-      <c r="AF122" s="132"/>
-      <c r="AG122" s="132"/>
-      <c r="AH122" s="132"/>
-      <c r="AI122" s="132"/>
-      <c r="AJ122" s="132"/>
       <c r="AK122" s="5"/>
       <c r="AN122" s="4"/>
-      <c r="AO122" s="132"/>
-      <c r="AP122" s="132"/>
-      <c r="AQ122" s="132"/>
-      <c r="AR122" s="132"/>
-      <c r="AS122" s="132"/>
-      <c r="AT122" s="132"/>
-      <c r="AU122" s="132"/>
       <c r="AV122" s="5"/>
     </row>
     <row r="123" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B123" s="4"/>
-      <c r="C123" s="132"/>
-      <c r="D123" s="132"/>
-      <c r="E123" s="132"/>
-      <c r="F123" s="132"/>
-      <c r="G123" s="132"/>
-      <c r="H123" s="132"/>
-      <c r="I123" s="5"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="132"/>
-      <c r="N123" s="132"/>
-      <c r="O123" s="132"/>
-      <c r="P123" s="132"/>
-      <c r="Q123" s="132"/>
-      <c r="R123" s="132"/>
-      <c r="S123" s="132"/>
-      <c r="T123" s="5"/>
-      <c r="W123" s="4"/>
-      <c r="X123" s="132"/>
-      <c r="Y123" s="132"/>
-      <c r="Z123" s="132"/>
-      <c r="AA123" s="132"/>
-      <c r="AB123" s="132"/>
-      <c r="AC123" s="132"/>
-      <c r="AD123" s="132"/>
-      <c r="AE123" s="132"/>
-      <c r="AF123" s="132"/>
-      <c r="AG123" s="132"/>
-      <c r="AH123" s="132"/>
-      <c r="AI123" s="132"/>
-      <c r="AJ123" s="132"/>
-      <c r="AK123" s="5"/>
-      <c r="AN123" s="4"/>
-      <c r="AO123" s="132"/>
-      <c r="AP123" s="132"/>
-      <c r="AQ123" s="132"/>
-      <c r="AR123" s="132"/>
-      <c r="AS123" s="132"/>
-      <c r="AT123" s="132"/>
-      <c r="AU123" s="132"/>
-      <c r="AV123" s="5"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="21"/>
+      <c r="L123" s="38"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="21"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="21"/>
+      <c r="T123" s="39"/>
+      <c r="W123" s="38"/>
+      <c r="X123" s="21"/>
+      <c r="Y123" s="21"/>
+      <c r="Z123" s="21"/>
+      <c r="AA123" s="21"/>
+      <c r="AB123" s="22"/>
+      <c r="AC123" s="20"/>
+      <c r="AD123" s="21"/>
+      <c r="AE123" s="21"/>
+      <c r="AF123" s="21"/>
+      <c r="AG123" s="21"/>
+      <c r="AH123" s="22"/>
+      <c r="AI123" s="20"/>
+      <c r="AJ123" s="21"/>
+      <c r="AK123" s="39"/>
+      <c r="AN123" s="20"/>
+      <c r="AO123" s="21"/>
+      <c r="AP123" s="39"/>
+      <c r="AQ123" s="20"/>
+      <c r="AR123" s="21"/>
+      <c r="AS123" s="21"/>
+      <c r="AT123" s="21"/>
+      <c r="AU123" s="21"/>
+      <c r="AV123" s="22"/>
     </row>
     <row r="124" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B124" s="4"/>
-      <c r="C124" s="132"/>
-      <c r="D124" s="132"/>
-      <c r="E124" s="132"/>
-      <c r="F124" s="132"/>
-      <c r="G124" s="132"/>
-      <c r="H124" s="132"/>
-      <c r="I124" s="5"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="132"/>
-      <c r="N124" s="132"/>
-      <c r="O124" s="132"/>
-      <c r="P124" s="132"/>
-      <c r="Q124" s="132"/>
-      <c r="R124" s="132"/>
-      <c r="S124" s="132"/>
-      <c r="T124" s="5"/>
-      <c r="W124" s="4"/>
-      <c r="X124" s="132"/>
-      <c r="Y124" s="132"/>
-      <c r="Z124" s="132"/>
-      <c r="AA124" s="132"/>
-      <c r="AB124" s="132"/>
-      <c r="AC124" s="132"/>
-      <c r="AD124" s="132"/>
-      <c r="AE124" s="132"/>
-      <c r="AF124" s="132"/>
-      <c r="AG124" s="132"/>
-      <c r="AH124" s="132"/>
-      <c r="AI124" s="132"/>
-      <c r="AJ124" s="132"/>
-      <c r="AK124" s="5"/>
-      <c r="AN124" s="4"/>
-      <c r="AO124" s="132"/>
-      <c r="AP124" s="132"/>
-      <c r="AQ124" s="132"/>
-      <c r="AR124" s="132"/>
-      <c r="AS124" s="132"/>
-      <c r="AT124" s="132"/>
-      <c r="AU124" s="132"/>
-      <c r="AV124" s="5"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="24"/>
+      <c r="L124" s="34"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="24"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="24"/>
+      <c r="Q124" s="25"/>
+      <c r="R124" s="23"/>
+      <c r="S124" s="24"/>
+      <c r="T124" s="35"/>
+      <c r="W124" s="34"/>
+      <c r="X124" s="24"/>
+      <c r="Y124" s="24"/>
+      <c r="Z124" s="24"/>
+      <c r="AA124" s="24"/>
+      <c r="AB124" s="25"/>
+      <c r="AC124" s="23"/>
+      <c r="AD124" s="24"/>
+      <c r="AE124" s="24"/>
+      <c r="AF124" s="24"/>
+      <c r="AG124" s="24"/>
+      <c r="AH124" s="25"/>
+      <c r="AI124" s="23"/>
+      <c r="AJ124" s="24"/>
+      <c r="AK124" s="35"/>
+      <c r="AN124" s="23"/>
+      <c r="AO124" s="24"/>
+      <c r="AP124" s="35"/>
+      <c r="AQ124" s="23"/>
+      <c r="AR124" s="24"/>
+      <c r="AS124" s="24"/>
+      <c r="AT124" s="24"/>
+      <c r="AU124" s="24"/>
+      <c r="AV124" s="25"/>
     </row>
     <row r="125" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B125" s="4"/>
-      <c r="C125" s="132"/>
-      <c r="D125" s="132"/>
-      <c r="E125" s="132"/>
-      <c r="F125" s="132"/>
-      <c r="G125" s="132"/>
-      <c r="H125" s="132"/>
-      <c r="I125" s="5"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="132"/>
-      <c r="N125" s="132"/>
-      <c r="O125" s="132"/>
-      <c r="P125" s="132"/>
-      <c r="Q125" s="132"/>
-      <c r="R125" s="132"/>
-      <c r="S125" s="132"/>
-      <c r="T125" s="5"/>
-      <c r="W125" s="4"/>
-      <c r="X125" s="132"/>
-      <c r="Y125" s="132"/>
-      <c r="Z125" s="132"/>
-      <c r="AA125" s="132"/>
-      <c r="AB125" s="132"/>
-      <c r="AC125" s="132"/>
-      <c r="AD125" s="132"/>
-      <c r="AE125" s="132"/>
-      <c r="AF125" s="132"/>
-      <c r="AG125" s="132"/>
-      <c r="AH125" s="132"/>
-      <c r="AI125" s="132"/>
-      <c r="AJ125" s="132"/>
-      <c r="AK125" s="5"/>
-      <c r="AN125" s="4"/>
-      <c r="AO125" s="132"/>
-      <c r="AP125" s="132"/>
-      <c r="AQ125" s="132"/>
-      <c r="AR125" s="132"/>
-      <c r="AS125" s="132"/>
-      <c r="AT125" s="132"/>
-      <c r="AU125" s="132"/>
-      <c r="AV125" s="5"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="24"/>
+      <c r="L125" s="34"/>
+      <c r="M125" s="24"/>
+      <c r="N125" s="24"/>
+      <c r="O125" s="24"/>
+      <c r="P125" s="24"/>
+      <c r="Q125" s="25"/>
+      <c r="R125" s="23"/>
+      <c r="S125" s="24"/>
+      <c r="T125" s="35"/>
+      <c r="W125" s="34"/>
+      <c r="X125" s="24"/>
+      <c r="Y125" s="24"/>
+      <c r="Z125" s="24"/>
+      <c r="AA125" s="24"/>
+      <c r="AB125" s="25"/>
+      <c r="AC125" s="23"/>
+      <c r="AD125" s="24"/>
+      <c r="AE125" s="24"/>
+      <c r="AF125" s="24"/>
+      <c r="AG125" s="24"/>
+      <c r="AH125" s="25"/>
+      <c r="AI125" s="23"/>
+      <c r="AJ125" s="24"/>
+      <c r="AK125" s="35"/>
+      <c r="AN125" s="23"/>
+      <c r="AO125" s="24"/>
+      <c r="AP125" s="35"/>
+      <c r="AQ125" s="23"/>
+      <c r="AR125" s="24"/>
+      <c r="AS125" s="24"/>
+      <c r="AT125" s="24"/>
+      <c r="AU125" s="24"/>
+      <c r="AV125" s="25"/>
     </row>
     <row r="126" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B126" s="4"/>
-      <c r="C126" s="132"/>
-      <c r="D126" s="132"/>
-      <c r="E126" s="132"/>
-      <c r="F126" s="132"/>
-      <c r="G126" s="132"/>
-      <c r="H126" s="132"/>
-      <c r="I126" s="5"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="132"/>
-      <c r="N126" s="132"/>
-      <c r="O126" s="132"/>
-      <c r="P126" s="132"/>
-      <c r="Q126" s="132"/>
-      <c r="R126" s="132"/>
-      <c r="S126" s="132"/>
-      <c r="T126" s="5"/>
-      <c r="W126" s="4"/>
-      <c r="X126" s="132"/>
-      <c r="Y126" s="132"/>
-      <c r="Z126" s="132"/>
-      <c r="AA126" s="132"/>
-      <c r="AB126" s="132"/>
-      <c r="AC126" s="132"/>
-      <c r="AD126" s="132"/>
-      <c r="AE126" s="132"/>
-      <c r="AF126" s="132"/>
-      <c r="AG126" s="132"/>
-      <c r="AH126" s="132"/>
-      <c r="AI126" s="132"/>
-      <c r="AJ126" s="132"/>
-      <c r="AK126" s="5"/>
-      <c r="AN126" s="4"/>
-      <c r="AO126" s="132"/>
-      <c r="AP126" s="132"/>
-      <c r="AQ126" s="132"/>
-      <c r="AR126" s="132"/>
-      <c r="AS126" s="132"/>
-      <c r="AT126" s="132"/>
-      <c r="AU126" s="132"/>
-      <c r="AV126" s="5"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="24"/>
+      <c r="L126" s="34"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="24"/>
+      <c r="P126" s="24"/>
+      <c r="Q126" s="25"/>
+      <c r="R126" s="23"/>
+      <c r="S126" s="24"/>
+      <c r="T126" s="35"/>
+      <c r="W126" s="34"/>
+      <c r="X126" s="24"/>
+      <c r="Y126" s="24"/>
+      <c r="Z126" s="24"/>
+      <c r="AA126" s="24"/>
+      <c r="AB126" s="25"/>
+      <c r="AC126" s="23"/>
+      <c r="AD126" s="24"/>
+      <c r="AE126" s="24"/>
+      <c r="AF126" s="24"/>
+      <c r="AG126" s="24"/>
+      <c r="AH126" s="25"/>
+      <c r="AI126" s="23"/>
+      <c r="AJ126" s="24"/>
+      <c r="AK126" s="35"/>
+      <c r="AN126" s="23"/>
+      <c r="AO126" s="24"/>
+      <c r="AP126" s="35"/>
+      <c r="AQ126" s="23"/>
+      <c r="AR126" s="24"/>
+      <c r="AS126" s="24"/>
+      <c r="AT126" s="24"/>
+      <c r="AU126" s="24"/>
+      <c r="AV126" s="25"/>
     </row>
     <row r="127" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
-      <c r="C127" s="132"/>
-      <c r="D127" s="132"/>
-      <c r="E127" s="132"/>
-      <c r="F127" s="132"/>
-      <c r="G127" s="132"/>
-      <c r="H127" s="132"/>
-      <c r="I127" s="5"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="132"/>
-      <c r="N127" s="132"/>
-      <c r="O127" s="132"/>
-      <c r="P127" s="132"/>
-      <c r="Q127" s="132"/>
-      <c r="R127" s="132"/>
-      <c r="S127" s="132"/>
-      <c r="T127" s="5"/>
-      <c r="W127" s="4"/>
-      <c r="X127" s="132"/>
-      <c r="Y127" s="132"/>
-      <c r="Z127" s="132"/>
-      <c r="AA127" s="132"/>
-      <c r="AB127" s="132"/>
-      <c r="AC127" s="132"/>
-      <c r="AD127" s="132"/>
-      <c r="AE127" s="132"/>
-      <c r="AF127" s="132"/>
-      <c r="AG127" s="132"/>
-      <c r="AH127" s="132"/>
-      <c r="AI127" s="132"/>
-      <c r="AJ127" s="132"/>
-      <c r="AK127" s="5"/>
-      <c r="AN127" s="4"/>
-      <c r="AO127" s="132"/>
-      <c r="AP127" s="132"/>
-      <c r="AQ127" s="132"/>
-      <c r="AR127" s="132"/>
-      <c r="AS127" s="132"/>
-      <c r="AT127" s="132"/>
-      <c r="AU127" s="132"/>
-      <c r="AV127" s="5"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="24"/>
+      <c r="L127" s="34"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
+      <c r="O127" s="24"/>
+      <c r="P127" s="24"/>
+      <c r="Q127" s="25"/>
+      <c r="R127" s="23"/>
+      <c r="S127" s="24"/>
+      <c r="T127" s="35"/>
+      <c r="W127" s="34"/>
+      <c r="X127" s="24"/>
+      <c r="Y127" s="24"/>
+      <c r="Z127" s="24"/>
+      <c r="AA127" s="24"/>
+      <c r="AB127" s="25"/>
+      <c r="AC127" s="23"/>
+      <c r="AD127" s="24"/>
+      <c r="AE127" s="24"/>
+      <c r="AF127" s="24"/>
+      <c r="AG127" s="24"/>
+      <c r="AH127" s="25"/>
+      <c r="AI127" s="23"/>
+      <c r="AJ127" s="24"/>
+      <c r="AK127" s="35"/>
+      <c r="AN127" s="23"/>
+      <c r="AO127" s="24"/>
+      <c r="AP127" s="35"/>
+      <c r="AQ127" s="23"/>
+      <c r="AR127" s="24"/>
+      <c r="AS127" s="24"/>
+      <c r="AT127" s="24"/>
+      <c r="AU127" s="24"/>
+      <c r="AV127" s="25"/>
     </row>
     <row r="128" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B128" s="4"/>
-      <c r="C128" s="132"/>
-      <c r="D128" s="132"/>
-      <c r="E128" s="132"/>
-      <c r="F128" s="132"/>
-      <c r="G128" s="132"/>
-      <c r="H128" s="132"/>
-      <c r="I128" s="5"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="132"/>
-      <c r="N128" s="132"/>
-      <c r="O128" s="132"/>
-      <c r="P128" s="132"/>
-      <c r="Q128" s="132"/>
-      <c r="R128" s="132"/>
-      <c r="S128" s="132"/>
-      <c r="T128" s="5"/>
-      <c r="W128" s="4"/>
-      <c r="X128" s="132"/>
-      <c r="Y128" s="132"/>
-      <c r="Z128" s="132"/>
-      <c r="AA128" s="132"/>
-      <c r="AB128" s="132"/>
-      <c r="AC128" s="132"/>
-      <c r="AD128" s="132"/>
-      <c r="AE128" s="132"/>
-      <c r="AF128" s="132"/>
-      <c r="AG128" s="132"/>
-      <c r="AH128" s="132"/>
-      <c r="AI128" s="132"/>
-      <c r="AJ128" s="132"/>
-      <c r="AK128" s="5"/>
-      <c r="AN128" s="4"/>
-      <c r="AO128" s="132"/>
-      <c r="AP128" s="132"/>
-      <c r="AQ128" s="132"/>
-      <c r="AR128" s="132"/>
-      <c r="AS128" s="132"/>
-      <c r="AT128" s="132"/>
-      <c r="AU128" s="132"/>
-      <c r="AV128" s="5"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="24"/>
+      <c r="L128" s="34"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="24"/>
+      <c r="O128" s="24"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="25"/>
+      <c r="R128" s="23"/>
+      <c r="S128" s="24"/>
+      <c r="T128" s="35"/>
+      <c r="W128" s="34"/>
+      <c r="X128" s="24"/>
+      <c r="Y128" s="24"/>
+      <c r="Z128" s="24"/>
+      <c r="AA128" s="24"/>
+      <c r="AB128" s="25"/>
+      <c r="AC128" s="23"/>
+      <c r="AD128" s="24"/>
+      <c r="AE128" s="24"/>
+      <c r="AF128" s="24"/>
+      <c r="AG128" s="24"/>
+      <c r="AH128" s="25"/>
+      <c r="AI128" s="23"/>
+      <c r="AJ128" s="24"/>
+      <c r="AK128" s="35"/>
+      <c r="AN128" s="23"/>
+      <c r="AO128" s="24"/>
+      <c r="AP128" s="35"/>
+      <c r="AQ128" s="23"/>
+      <c r="AR128" s="24"/>
+      <c r="AS128" s="24"/>
+      <c r="AT128" s="24"/>
+      <c r="AU128" s="24"/>
+      <c r="AV128" s="25"/>
     </row>
     <row r="129" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B129" s="4"/>
-      <c r="C129" s="132"/>
-      <c r="D129" s="132"/>
-      <c r="E129" s="132"/>
-      <c r="F129" s="132"/>
-      <c r="G129" s="132"/>
-      <c r="H129" s="132"/>
-      <c r="I129" s="5"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="132"/>
-      <c r="N129" s="132"/>
-      <c r="O129" s="132"/>
-      <c r="P129" s="132"/>
-      <c r="Q129" s="132"/>
-      <c r="R129" s="132"/>
-      <c r="S129" s="132"/>
-      <c r="T129" s="5"/>
-      <c r="W129" s="4"/>
-      <c r="X129" s="132"/>
-      <c r="Y129" s="132"/>
-      <c r="Z129" s="132"/>
-      <c r="AA129" s="132"/>
-      <c r="AB129" s="132"/>
-      <c r="AC129" s="132"/>
-      <c r="AD129" s="132"/>
-      <c r="AE129" s="132"/>
-      <c r="AF129" s="132"/>
-      <c r="AG129" s="132"/>
-      <c r="AH129" s="132"/>
-      <c r="AI129" s="132"/>
-      <c r="AJ129" s="132"/>
-      <c r="AK129" s="5"/>
-      <c r="AN129" s="4"/>
-      <c r="AO129" s="132"/>
-      <c r="AP129" s="132"/>
-      <c r="AQ129" s="132"/>
-      <c r="AR129" s="132"/>
-      <c r="AS129" s="132"/>
-      <c r="AT129" s="132"/>
-      <c r="AU129" s="132"/>
-      <c r="AV129" s="5"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="24"/>
+      <c r="L129" s="34"/>
+      <c r="M129" s="24"/>
+      <c r="N129" s="24"/>
+      <c r="O129" s="24"/>
+      <c r="P129" s="24"/>
+      <c r="Q129" s="25"/>
+      <c r="R129" s="23"/>
+      <c r="S129" s="24"/>
+      <c r="T129" s="35"/>
+      <c r="W129" s="34"/>
+      <c r="X129" s="24"/>
+      <c r="Y129" s="24"/>
+      <c r="Z129" s="24"/>
+      <c r="AA129" s="24"/>
+      <c r="AB129" s="25"/>
+      <c r="AC129" s="23"/>
+      <c r="AD129" s="24"/>
+      <c r="AE129" s="24"/>
+      <c r="AF129" s="24"/>
+      <c r="AG129" s="24"/>
+      <c r="AH129" s="25"/>
+      <c r="AI129" s="23"/>
+      <c r="AJ129" s="24"/>
+      <c r="AK129" s="35"/>
+      <c r="AN129" s="23"/>
+      <c r="AO129" s="24"/>
+      <c r="AP129" s="35"/>
+      <c r="AQ129" s="23"/>
+      <c r="AR129" s="24"/>
+      <c r="AS129" s="24"/>
+      <c r="AT129" s="24"/>
+      <c r="AU129" s="24"/>
+      <c r="AV129" s="25"/>
     </row>
     <row r="130" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A130" s="133">
+      <c r="A130" s="104">
         <v>2600</v>
       </c>
-      <c r="B130" s="4"/>
-      <c r="C130" s="132"/>
-      <c r="D130" s="132"/>
-      <c r="E130" s="132"/>
-      <c r="F130" s="132"/>
-      <c r="G130" s="132"/>
-      <c r="H130" s="132"/>
-      <c r="I130" s="5"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="132"/>
-      <c r="N130" s="132"/>
-      <c r="O130" s="132"/>
-      <c r="P130" s="132"/>
-      <c r="Q130" s="132"/>
-      <c r="R130" s="132"/>
-      <c r="S130" s="132"/>
-      <c r="T130" s="5"/>
-      <c r="W130" s="4"/>
-      <c r="X130" s="132"/>
-      <c r="Y130" s="132"/>
-      <c r="Z130" s="132"/>
-      <c r="AA130" s="132"/>
-      <c r="AB130" s="132"/>
-      <c r="AC130" s="132"/>
-      <c r="AD130" s="132"/>
-      <c r="AE130" s="132"/>
-      <c r="AF130" s="132"/>
-      <c r="AG130" s="132"/>
-      <c r="AH130" s="132"/>
-      <c r="AI130" s="132"/>
-      <c r="AJ130" s="132"/>
-      <c r="AK130" s="5"/>
-      <c r="AN130" s="4"/>
-      <c r="AO130" s="132"/>
-      <c r="AP130" s="132"/>
-      <c r="AQ130" s="132"/>
-      <c r="AR130" s="132"/>
-      <c r="AS130" s="132"/>
-      <c r="AT130" s="132"/>
-      <c r="AU130" s="132"/>
-      <c r="AV130" s="5"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="24"/>
+      <c r="L130" s="34"/>
+      <c r="M130" s="24"/>
+      <c r="N130" s="24"/>
+      <c r="O130" s="24"/>
+      <c r="P130" s="24"/>
+      <c r="Q130" s="25"/>
+      <c r="R130" s="23"/>
+      <c r="S130" s="24"/>
+      <c r="T130" s="35"/>
+      <c r="W130" s="34"/>
+      <c r="X130" s="24"/>
+      <c r="Y130" s="24"/>
+      <c r="Z130" s="24"/>
+      <c r="AA130" s="24"/>
+      <c r="AB130" s="25"/>
+      <c r="AC130" s="23"/>
+      <c r="AD130" s="24"/>
+      <c r="AE130" s="24"/>
+      <c r="AF130" s="24"/>
+      <c r="AG130" s="24"/>
+      <c r="AH130" s="25"/>
+      <c r="AI130" s="23"/>
+      <c r="AJ130" s="24"/>
+      <c r="AK130" s="35"/>
+      <c r="AN130" s="23"/>
+      <c r="AO130" s="24"/>
+      <c r="AP130" s="35"/>
+      <c r="AQ130" s="23"/>
+      <c r="AR130" s="24"/>
+      <c r="AS130" s="24"/>
+      <c r="AT130" s="24"/>
+      <c r="AU130" s="24"/>
+      <c r="AV130" s="25"/>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A131" s="133"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="132"/>
-      <c r="D131" s="132"/>
-      <c r="E131" s="132"/>
-      <c r="F131" s="132"/>
-      <c r="G131" s="132"/>
-      <c r="H131" s="132"/>
-      <c r="I131" s="5"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="132"/>
-      <c r="N131" s="132"/>
-      <c r="O131" s="132"/>
-      <c r="P131" s="132"/>
-      <c r="Q131" s="132"/>
-      <c r="R131" s="132"/>
-      <c r="S131" s="132"/>
-      <c r="T131" s="5"/>
-      <c r="W131" s="4"/>
-      <c r="X131" s="132"/>
-      <c r="Y131" s="132"/>
-      <c r="Z131" s="132"/>
-      <c r="AA131" s="132"/>
-      <c r="AB131" s="132"/>
-      <c r="AC131" s="132"/>
-      <c r="AD131" s="132"/>
-      <c r="AE131" s="132"/>
-      <c r="AF131" s="132"/>
-      <c r="AG131" s="132"/>
-      <c r="AH131" s="132"/>
-      <c r="AI131" s="132"/>
-      <c r="AJ131" s="132"/>
-      <c r="AK131" s="5"/>
-      <c r="AN131" s="4"/>
-      <c r="AO131" s="132"/>
-      <c r="AP131" s="132"/>
-      <c r="AQ131" s="132"/>
-      <c r="AR131" s="132"/>
-      <c r="AS131" s="132"/>
-      <c r="AT131" s="132"/>
-      <c r="AU131" s="132"/>
-      <c r="AV131" s="5"/>
+      <c r="A131" s="104"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="24"/>
+      <c r="L131" s="34"/>
+      <c r="M131" s="24"/>
+      <c r="N131" s="24"/>
+      <c r="O131" s="24"/>
+      <c r="P131" s="24"/>
+      <c r="Q131" s="25"/>
+      <c r="R131" s="23"/>
+      <c r="S131" s="24"/>
+      <c r="T131" s="35"/>
+      <c r="W131" s="34"/>
+      <c r="X131" s="24"/>
+      <c r="Y131" s="24"/>
+      <c r="Z131" s="24"/>
+      <c r="AA131" s="24"/>
+      <c r="AB131" s="25"/>
+      <c r="AC131" s="23"/>
+      <c r="AD131" s="24"/>
+      <c r="AE131" s="24"/>
+      <c r="AF131" s="24"/>
+      <c r="AG131" s="24"/>
+      <c r="AH131" s="25"/>
+      <c r="AI131" s="23"/>
+      <c r="AJ131" s="24"/>
+      <c r="AK131" s="35"/>
+      <c r="AN131" s="23"/>
+      <c r="AO131" s="24"/>
+      <c r="AP131" s="35"/>
+      <c r="AQ131" s="23"/>
+      <c r="AR131" s="24"/>
+      <c r="AS131" s="24"/>
+      <c r="AT131" s="24"/>
+      <c r="AU131" s="24"/>
+      <c r="AV131" s="25"/>
     </row>
     <row r="132" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A132" s="133"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="132"/>
-      <c r="D132" s="132"/>
-      <c r="E132" s="132"/>
-      <c r="F132" s="132"/>
-      <c r="G132" s="132"/>
-      <c r="H132" s="132"/>
-      <c r="I132" s="5"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="132"/>
-      <c r="N132" s="132"/>
-      <c r="O132" s="132"/>
-      <c r="P132" s="132"/>
-      <c r="Q132" s="132"/>
-      <c r="R132" s="132"/>
-      <c r="S132" s="132"/>
-      <c r="T132" s="5"/>
-      <c r="W132" s="4"/>
-      <c r="X132" s="132"/>
-      <c r="Y132" s="132"/>
-      <c r="Z132" s="132"/>
-      <c r="AA132" s="132"/>
-      <c r="AB132" s="132"/>
-      <c r="AC132" s="132"/>
-      <c r="AD132" s="132"/>
-      <c r="AE132" s="132"/>
-      <c r="AF132" s="132"/>
-      <c r="AG132" s="132"/>
-      <c r="AH132" s="132"/>
-      <c r="AI132" s="132"/>
-      <c r="AJ132" s="132"/>
-      <c r="AK132" s="5"/>
-      <c r="AN132" s="4"/>
-      <c r="AO132" s="132"/>
-      <c r="AP132" s="132"/>
-      <c r="AQ132" s="132"/>
-      <c r="AR132" s="132"/>
-      <c r="AS132" s="132"/>
-      <c r="AT132" s="132"/>
-      <c r="AU132" s="132"/>
-      <c r="AV132" s="5"/>
+      <c r="A132" s="104"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="24"/>
+      <c r="L132" s="34"/>
+      <c r="M132" s="24"/>
+      <c r="N132" s="24"/>
+      <c r="O132" s="24"/>
+      <c r="P132" s="24"/>
+      <c r="Q132" s="25"/>
+      <c r="R132" s="23"/>
+      <c r="S132" s="24"/>
+      <c r="T132" s="35"/>
+      <c r="W132" s="34"/>
+      <c r="X132" s="24"/>
+      <c r="Y132" s="24"/>
+      <c r="Z132" s="24"/>
+      <c r="AA132" s="24"/>
+      <c r="AB132" s="25"/>
+      <c r="AC132" s="23"/>
+      <c r="AD132" s="24"/>
+      <c r="AE132" s="24"/>
+      <c r="AF132" s="24"/>
+      <c r="AG132" s="24"/>
+      <c r="AH132" s="25"/>
+      <c r="AI132" s="23"/>
+      <c r="AJ132" s="24"/>
+      <c r="AK132" s="35"/>
+      <c r="AN132" s="23"/>
+      <c r="AO132" s="24"/>
+      <c r="AP132" s="35"/>
+      <c r="AQ132" s="23"/>
+      <c r="AR132" s="24"/>
+      <c r="AS132" s="24"/>
+      <c r="AT132" s="24"/>
+      <c r="AU132" s="24"/>
+      <c r="AV132" s="25"/>
     </row>
     <row r="133" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A133" s="133"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="132"/>
-      <c r="D133" s="132"/>
-      <c r="E133" s="132"/>
-      <c r="F133" s="132"/>
-      <c r="G133" s="132"/>
-      <c r="H133" s="132"/>
-      <c r="I133" s="5"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="132"/>
-      <c r="N133" s="132"/>
-      <c r="O133" s="132"/>
-      <c r="P133" s="132"/>
-      <c r="Q133" s="132"/>
-      <c r="R133" s="132"/>
-      <c r="S133" s="132"/>
-      <c r="T133" s="5"/>
-      <c r="W133" s="4"/>
-      <c r="X133" s="132"/>
-      <c r="Y133" s="132"/>
-      <c r="Z133" s="132"/>
-      <c r="AA133" s="132"/>
-      <c r="AB133" s="132"/>
-      <c r="AC133" s="132"/>
-      <c r="AD133" s="132"/>
-      <c r="AE133" s="132"/>
-      <c r="AF133" s="132"/>
-      <c r="AG133" s="132"/>
-      <c r="AH133" s="132"/>
-      <c r="AI133" s="132"/>
-      <c r="AJ133" s="132"/>
-      <c r="AK133" s="5"/>
-      <c r="AN133" s="4"/>
-      <c r="AO133" s="132"/>
-      <c r="AP133" s="132"/>
-      <c r="AQ133" s="132"/>
-      <c r="AR133" s="132"/>
-      <c r="AS133" s="132"/>
-      <c r="AT133" s="132"/>
-      <c r="AU133" s="132"/>
-      <c r="AV133" s="5"/>
+      <c r="A133" s="104"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="24"/>
+      <c r="L133" s="34"/>
+      <c r="M133" s="24"/>
+      <c r="N133" s="24"/>
+      <c r="O133" s="24"/>
+      <c r="P133" s="24"/>
+      <c r="Q133" s="25"/>
+      <c r="R133" s="23"/>
+      <c r="S133" s="24"/>
+      <c r="T133" s="35"/>
+      <c r="W133" s="34"/>
+      <c r="X133" s="24"/>
+      <c r="Y133" s="24"/>
+      <c r="Z133" s="24"/>
+      <c r="AA133" s="24"/>
+      <c r="AB133" s="25"/>
+      <c r="AC133" s="23"/>
+      <c r="AD133" s="24"/>
+      <c r="AE133" s="24"/>
+      <c r="AF133" s="24"/>
+      <c r="AG133" s="24"/>
+      <c r="AH133" s="25"/>
+      <c r="AI133" s="23"/>
+      <c r="AJ133" s="24"/>
+      <c r="AK133" s="35"/>
+      <c r="AN133" s="23"/>
+      <c r="AO133" s="24"/>
+      <c r="AP133" s="35"/>
+      <c r="AQ133" s="23"/>
+      <c r="AR133" s="24"/>
+      <c r="AS133" s="24"/>
+      <c r="AT133" s="24"/>
+      <c r="AU133" s="24"/>
+      <c r="AV133" s="25"/>
     </row>
     <row r="134" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A134" s="133"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="132"/>
-      <c r="D134" s="132"/>
-      <c r="E134" s="132"/>
-      <c r="F134" s="132"/>
-      <c r="G134" s="132"/>
-      <c r="H134" s="132"/>
-      <c r="I134" s="5"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="132"/>
-      <c r="N134" s="132"/>
-      <c r="O134" s="132"/>
-      <c r="P134" s="132"/>
-      <c r="Q134" s="132"/>
-      <c r="R134" s="132"/>
-      <c r="S134" s="132"/>
-      <c r="T134" s="5"/>
-      <c r="W134" s="4"/>
-      <c r="X134" s="132"/>
-      <c r="Y134" s="132"/>
-      <c r="Z134" s="132"/>
-      <c r="AA134" s="132"/>
-      <c r="AB134" s="132"/>
-      <c r="AC134" s="132"/>
-      <c r="AD134" s="132"/>
-      <c r="AE134" s="132"/>
-      <c r="AF134" s="132"/>
-      <c r="AG134" s="132"/>
-      <c r="AH134" s="132"/>
-      <c r="AI134" s="132"/>
-      <c r="AJ134" s="132"/>
-      <c r="AK134" s="5"/>
-      <c r="AN134" s="4"/>
-      <c r="AO134" s="132"/>
-      <c r="AP134" s="132"/>
-      <c r="AQ134" s="132"/>
-      <c r="AR134" s="132"/>
-      <c r="AS134" s="132"/>
-      <c r="AT134" s="132"/>
-      <c r="AU134" s="132"/>
-      <c r="AV134" s="5"/>
+      <c r="A134" s="104"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="27"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="27"/>
+      <c r="O134" s="27"/>
+      <c r="P134" s="27"/>
+      <c r="Q134" s="28"/>
+      <c r="R134" s="26"/>
+      <c r="S134" s="27"/>
+      <c r="T134" s="37"/>
+      <c r="W134" s="36"/>
+      <c r="X134" s="27"/>
+      <c r="Y134" s="27"/>
+      <c r="Z134" s="27"/>
+      <c r="AA134" s="27"/>
+      <c r="AB134" s="28"/>
+      <c r="AC134" s="26"/>
+      <c r="AD134" s="27"/>
+      <c r="AE134" s="27"/>
+      <c r="AF134" s="27"/>
+      <c r="AG134" s="27"/>
+      <c r="AH134" s="28"/>
+      <c r="AI134" s="26"/>
+      <c r="AJ134" s="27"/>
+      <c r="AK134" s="37"/>
+      <c r="AN134" s="26"/>
+      <c r="AO134" s="27"/>
+      <c r="AP134" s="37"/>
+      <c r="AQ134" s="26"/>
+      <c r="AR134" s="27"/>
+      <c r="AS134" s="27"/>
+      <c r="AT134" s="27"/>
+      <c r="AU134" s="27"/>
+      <c r="AV134" s="28"/>
     </row>
     <row r="135" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A135" s="133"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="132"/>
-      <c r="D135" s="132"/>
-      <c r="E135" s="132"/>
-      <c r="F135" s="132"/>
-      <c r="G135" s="132"/>
-      <c r="H135" s="132"/>
-      <c r="I135" s="5"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="132"/>
-      <c r="N135" s="132"/>
-      <c r="O135" s="132"/>
-      <c r="P135" s="132"/>
-      <c r="Q135" s="132"/>
-      <c r="R135" s="132"/>
-      <c r="S135" s="132"/>
-      <c r="T135" s="5"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="132"/>
-      <c r="Y135" s="132"/>
-      <c r="Z135" s="132"/>
-      <c r="AA135" s="132"/>
-      <c r="AB135" s="132"/>
-      <c r="AC135" s="132"/>
-      <c r="AD135" s="132"/>
-      <c r="AE135" s="132"/>
-      <c r="AF135" s="132"/>
-      <c r="AG135" s="132"/>
-      <c r="AH135" s="132"/>
-      <c r="AI135" s="132"/>
-      <c r="AJ135" s="132"/>
-      <c r="AK135" s="5"/>
-      <c r="AN135" s="4"/>
-      <c r="AO135" s="132"/>
-      <c r="AP135" s="132"/>
-      <c r="AQ135" s="132"/>
-      <c r="AR135" s="132"/>
-      <c r="AS135" s="132"/>
-      <c r="AT135" s="132"/>
-      <c r="AU135" s="132"/>
-      <c r="AV135" s="5"/>
+      <c r="A135" s="104"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="21"/>
+      <c r="L135" s="38"/>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21"/>
+      <c r="O135" s="21"/>
+      <c r="P135" s="21"/>
+      <c r="Q135" s="22"/>
+      <c r="R135" s="20"/>
+      <c r="S135" s="21"/>
+      <c r="T135" s="39"/>
+      <c r="W135" s="38"/>
+      <c r="X135" s="21"/>
+      <c r="Y135" s="21"/>
+      <c r="Z135" s="21"/>
+      <c r="AA135" s="21"/>
+      <c r="AB135" s="22"/>
+      <c r="AC135" s="20"/>
+      <c r="AD135" s="21"/>
+      <c r="AE135" s="21"/>
+      <c r="AF135" s="21"/>
+      <c r="AG135" s="21"/>
+      <c r="AH135" s="22"/>
+      <c r="AI135" s="20"/>
+      <c r="AJ135" s="21"/>
+      <c r="AK135" s="39"/>
+      <c r="AN135" s="20"/>
+      <c r="AO135" s="21"/>
+      <c r="AP135" s="39"/>
+      <c r="AQ135" s="20"/>
+      <c r="AR135" s="21"/>
+      <c r="AS135" s="21"/>
+      <c r="AT135" s="21"/>
+      <c r="AU135" s="21"/>
+      <c r="AV135" s="22"/>
     </row>
     <row r="136" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A136" s="133"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="132"/>
-      <c r="D136" s="132"/>
-      <c r="E136" s="132"/>
-      <c r="F136" s="132"/>
-      <c r="G136" s="132"/>
-      <c r="H136" s="132"/>
-      <c r="I136" s="5"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="132"/>
-      <c r="N136" s="132"/>
-      <c r="O136" s="132"/>
-      <c r="P136" s="132"/>
-      <c r="Q136" s="132"/>
-      <c r="R136" s="132"/>
-      <c r="S136" s="132"/>
-      <c r="T136" s="5"/>
-      <c r="W136" s="4"/>
-      <c r="X136" s="132"/>
-      <c r="Y136" s="132"/>
-      <c r="Z136" s="132"/>
-      <c r="AA136" s="132"/>
-      <c r="AB136" s="132"/>
-      <c r="AC136" s="132"/>
-      <c r="AD136" s="132"/>
-      <c r="AE136" s="132"/>
-      <c r="AF136" s="132"/>
-      <c r="AG136" s="132"/>
-      <c r="AH136" s="132"/>
-      <c r="AI136" s="132"/>
-      <c r="AJ136" s="132"/>
-      <c r="AK136" s="5"/>
-      <c r="AN136" s="4"/>
-      <c r="AO136" s="132"/>
-      <c r="AP136" s="132"/>
-      <c r="AQ136" s="132"/>
-      <c r="AR136" s="132"/>
-      <c r="AS136" s="132"/>
-      <c r="AT136" s="132"/>
-      <c r="AU136" s="132"/>
-      <c r="AV136" s="5"/>
+      <c r="A136" s="104"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="24"/>
+      <c r="L136" s="34"/>
+      <c r="M136" s="24"/>
+      <c r="N136" s="24"/>
+      <c r="O136" s="24"/>
+      <c r="P136" s="24"/>
+      <c r="Q136" s="25"/>
+      <c r="R136" s="23"/>
+      <c r="S136" s="24"/>
+      <c r="T136" s="35"/>
+      <c r="W136" s="34"/>
+      <c r="X136" s="24"/>
+      <c r="Y136" s="24"/>
+      <c r="Z136" s="24"/>
+      <c r="AA136" s="24"/>
+      <c r="AB136" s="25"/>
+      <c r="AC136" s="23"/>
+      <c r="AD136" s="24"/>
+      <c r="AE136" s="24"/>
+      <c r="AF136" s="24"/>
+      <c r="AG136" s="24"/>
+      <c r="AH136" s="25"/>
+      <c r="AI136" s="23"/>
+      <c r="AJ136" s="24"/>
+      <c r="AK136" s="35"/>
+      <c r="AN136" s="23"/>
+      <c r="AO136" s="24"/>
+      <c r="AP136" s="35"/>
+      <c r="AQ136" s="23"/>
+      <c r="AR136" s="24"/>
+      <c r="AS136" s="24"/>
+      <c r="AT136" s="24"/>
+      <c r="AU136" s="24"/>
+      <c r="AV136" s="25"/>
     </row>
     <row r="137" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B137" s="4"/>
-      <c r="C137" s="132"/>
-      <c r="D137" s="132"/>
-      <c r="E137" s="132"/>
-      <c r="F137" s="132"/>
-      <c r="G137" s="132"/>
-      <c r="H137" s="132"/>
-      <c r="I137" s="5"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="132"/>
-      <c r="N137" s="132"/>
-      <c r="O137" s="132"/>
-      <c r="P137" s="132"/>
-      <c r="Q137" s="132"/>
-      <c r="R137" s="132"/>
-      <c r="S137" s="132"/>
-      <c r="T137" s="5"/>
-      <c r="W137" s="4"/>
-      <c r="X137" s="132"/>
-      <c r="Y137" s="132"/>
-      <c r="Z137" s="132"/>
-      <c r="AA137" s="132"/>
-      <c r="AB137" s="132"/>
-      <c r="AC137" s="132"/>
-      <c r="AD137" s="132"/>
-      <c r="AE137" s="132"/>
-      <c r="AF137" s="132"/>
-      <c r="AG137" s="132"/>
-      <c r="AH137" s="132"/>
-      <c r="AI137" s="132"/>
-      <c r="AJ137" s="132"/>
-      <c r="AK137" s="5"/>
-      <c r="AN137" s="4"/>
-      <c r="AO137" s="132"/>
-      <c r="AP137" s="132"/>
-      <c r="AQ137" s="132"/>
-      <c r="AR137" s="132"/>
-      <c r="AS137" s="132"/>
-      <c r="AT137" s="132"/>
-      <c r="AU137" s="132"/>
-      <c r="AV137" s="5"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="24"/>
+      <c r="L137" s="34"/>
+      <c r="M137" s="24"/>
+      <c r="N137" s="24"/>
+      <c r="O137" s="24"/>
+      <c r="P137" s="24"/>
+      <c r="Q137" s="25"/>
+      <c r="R137" s="23"/>
+      <c r="S137" s="24"/>
+      <c r="T137" s="35"/>
+      <c r="W137" s="34"/>
+      <c r="X137" s="24"/>
+      <c r="Y137" s="24"/>
+      <c r="Z137" s="24"/>
+      <c r="AA137" s="24"/>
+      <c r="AB137" s="25"/>
+      <c r="AC137" s="23"/>
+      <c r="AD137" s="24"/>
+      <c r="AE137" s="24"/>
+      <c r="AF137" s="24"/>
+      <c r="AG137" s="24"/>
+      <c r="AH137" s="25"/>
+      <c r="AI137" s="23"/>
+      <c r="AJ137" s="24"/>
+      <c r="AK137" s="35"/>
+      <c r="AN137" s="23"/>
+      <c r="AO137" s="24"/>
+      <c r="AP137" s="35"/>
+      <c r="AQ137" s="23"/>
+      <c r="AR137" s="24"/>
+      <c r="AS137" s="24"/>
+      <c r="AT137" s="24"/>
+      <c r="AU137" s="24"/>
+      <c r="AV137" s="25"/>
     </row>
     <row r="138" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B138" s="4"/>
-      <c r="C138" s="132"/>
-      <c r="D138" s="132"/>
-      <c r="E138" s="132"/>
-      <c r="F138" s="132"/>
-      <c r="G138" s="132"/>
-      <c r="H138" s="132"/>
-      <c r="I138" s="5"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="132"/>
-      <c r="N138" s="132"/>
-      <c r="O138" s="132"/>
-      <c r="P138" s="132"/>
-      <c r="Q138" s="132"/>
-      <c r="R138" s="132"/>
-      <c r="S138" s="132"/>
-      <c r="T138" s="5"/>
-      <c r="W138" s="4"/>
-      <c r="X138" s="132"/>
-      <c r="Y138" s="132"/>
-      <c r="Z138" s="132"/>
-      <c r="AA138" s="132"/>
-      <c r="AB138" s="132"/>
-      <c r="AC138" s="132"/>
-      <c r="AD138" s="132"/>
-      <c r="AE138" s="132"/>
-      <c r="AF138" s="132"/>
-      <c r="AG138" s="132"/>
-      <c r="AH138" s="132"/>
-      <c r="AI138" s="132"/>
-      <c r="AJ138" s="132"/>
-      <c r="AK138" s="5"/>
-      <c r="AN138" s="4"/>
-      <c r="AO138" s="132"/>
-      <c r="AP138" s="132"/>
-      <c r="AQ138" s="132"/>
-      <c r="AR138" s="132"/>
-      <c r="AS138" s="132"/>
-      <c r="AT138" s="132"/>
-      <c r="AU138" s="132"/>
-      <c r="AV138" s="5"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="24"/>
+      <c r="L138" s="34"/>
+      <c r="M138" s="24"/>
+      <c r="N138" s="24"/>
+      <c r="O138" s="24"/>
+      <c r="P138" s="24"/>
+      <c r="Q138" s="25"/>
+      <c r="R138" s="23"/>
+      <c r="S138" s="24"/>
+      <c r="T138" s="35"/>
+      <c r="W138" s="34"/>
+      <c r="X138" s="24"/>
+      <c r="Y138" s="24"/>
+      <c r="Z138" s="24"/>
+      <c r="AA138" s="24"/>
+      <c r="AB138" s="25"/>
+      <c r="AC138" s="23"/>
+      <c r="AD138" s="24"/>
+      <c r="AE138" s="24"/>
+      <c r="AF138" s="24"/>
+      <c r="AG138" s="24"/>
+      <c r="AH138" s="25"/>
+      <c r="AI138" s="23"/>
+      <c r="AJ138" s="24"/>
+      <c r="AK138" s="35"/>
+      <c r="AN138" s="23"/>
+      <c r="AO138" s="24"/>
+      <c r="AP138" s="35"/>
+      <c r="AQ138" s="23"/>
+      <c r="AR138" s="24"/>
+      <c r="AS138" s="24"/>
+      <c r="AT138" s="24"/>
+      <c r="AU138" s="24"/>
+      <c r="AV138" s="25"/>
     </row>
     <row r="139" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B139" s="4"/>
-      <c r="C139" s="132"/>
-      <c r="D139" s="132"/>
-      <c r="E139" s="132"/>
-      <c r="F139" s="132"/>
-      <c r="G139" s="132"/>
-      <c r="H139" s="132"/>
-      <c r="I139" s="5"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="132"/>
-      <c r="N139" s="132"/>
-      <c r="O139" s="132"/>
-      <c r="P139" s="132"/>
-      <c r="Q139" s="132"/>
-      <c r="R139" s="132"/>
-      <c r="S139" s="132"/>
-      <c r="T139" s="5"/>
-      <c r="W139" s="4"/>
-      <c r="X139" s="132"/>
-      <c r="Y139" s="132"/>
-      <c r="Z139" s="132"/>
-      <c r="AA139" s="132"/>
-      <c r="AB139" s="132"/>
-      <c r="AC139" s="132"/>
-      <c r="AD139" s="132"/>
-      <c r="AE139" s="132"/>
-      <c r="AF139" s="132"/>
-      <c r="AG139" s="132"/>
-      <c r="AH139" s="132"/>
-      <c r="AI139" s="132"/>
-      <c r="AJ139" s="132"/>
-      <c r="AK139" s="5"/>
-      <c r="AN139" s="4"/>
-      <c r="AO139" s="132"/>
-      <c r="AP139" s="132"/>
-      <c r="AQ139" s="132"/>
-      <c r="AR139" s="132"/>
-      <c r="AS139" s="132"/>
-      <c r="AT139" s="132"/>
-      <c r="AU139" s="132"/>
-      <c r="AV139" s="5"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="24"/>
+      <c r="L139" s="34"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="24"/>
+      <c r="O139" s="24"/>
+      <c r="P139" s="24"/>
+      <c r="Q139" s="25"/>
+      <c r="R139" s="23"/>
+      <c r="S139" s="24"/>
+      <c r="T139" s="35"/>
+      <c r="W139" s="34"/>
+      <c r="X139" s="24"/>
+      <c r="Y139" s="24"/>
+      <c r="Z139" s="24"/>
+      <c r="AA139" s="24"/>
+      <c r="AB139" s="25"/>
+      <c r="AC139" s="23"/>
+      <c r="AD139" s="24"/>
+      <c r="AE139" s="24"/>
+      <c r="AF139" s="24"/>
+      <c r="AG139" s="24"/>
+      <c r="AH139" s="25"/>
+      <c r="AI139" s="23"/>
+      <c r="AJ139" s="24"/>
+      <c r="AK139" s="35"/>
+      <c r="AN139" s="23"/>
+      <c r="AO139" s="24"/>
+      <c r="AP139" s="35"/>
+      <c r="AQ139" s="23"/>
+      <c r="AR139" s="24"/>
+      <c r="AS139" s="24"/>
+      <c r="AT139" s="24"/>
+      <c r="AU139" s="24"/>
+      <c r="AV139" s="25"/>
     </row>
     <row r="140" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B140" s="4"/>
-      <c r="C140" s="132"/>
-      <c r="D140" s="132"/>
-      <c r="E140" s="132"/>
-      <c r="F140" s="132"/>
-      <c r="G140" s="132"/>
-      <c r="H140" s="132"/>
-      <c r="I140" s="5"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="132"/>
-      <c r="N140" s="132"/>
-      <c r="O140" s="132"/>
-      <c r="P140" s="132"/>
-      <c r="Q140" s="132"/>
-      <c r="R140" s="132"/>
-      <c r="S140" s="132"/>
-      <c r="T140" s="5"/>
-      <c r="W140" s="4"/>
-      <c r="X140" s="132"/>
-      <c r="Y140" s="132"/>
-      <c r="Z140" s="132"/>
-      <c r="AA140" s="132"/>
-      <c r="AB140" s="132"/>
-      <c r="AC140" s="132"/>
-      <c r="AD140" s="132"/>
-      <c r="AE140" s="132"/>
-      <c r="AF140" s="132"/>
-      <c r="AG140" s="132"/>
-      <c r="AH140" s="132"/>
-      <c r="AI140" s="132"/>
-      <c r="AJ140" s="132"/>
-      <c r="AK140" s="5"/>
-      <c r="AN140" s="4"/>
-      <c r="AO140" s="132"/>
-      <c r="AP140" s="132"/>
-      <c r="AQ140" s="132"/>
-      <c r="AR140" s="132"/>
-      <c r="AS140" s="132"/>
-      <c r="AT140" s="132"/>
-      <c r="AU140" s="132"/>
-      <c r="AV140" s="5"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="23"/>
+      <c r="I140" s="24"/>
+      <c r="L140" s="34"/>
+      <c r="M140" s="24"/>
+      <c r="N140" s="24"/>
+      <c r="O140" s="24"/>
+      <c r="P140" s="24"/>
+      <c r="Q140" s="25"/>
+      <c r="R140" s="23"/>
+      <c r="S140" s="24"/>
+      <c r="T140" s="35"/>
+      <c r="W140" s="34"/>
+      <c r="X140" s="24"/>
+      <c r="Y140" s="24"/>
+      <c r="Z140" s="24"/>
+      <c r="AA140" s="24"/>
+      <c r="AB140" s="25"/>
+      <c r="AC140" s="23"/>
+      <c r="AD140" s="24"/>
+      <c r="AE140" s="24"/>
+      <c r="AF140" s="24"/>
+      <c r="AG140" s="24"/>
+      <c r="AH140" s="25"/>
+      <c r="AI140" s="23"/>
+      <c r="AJ140" s="24"/>
+      <c r="AK140" s="35"/>
+      <c r="AN140" s="23"/>
+      <c r="AO140" s="24"/>
+      <c r="AP140" s="35"/>
+      <c r="AQ140" s="23"/>
+      <c r="AR140" s="24"/>
+      <c r="AS140" s="24"/>
+      <c r="AT140" s="24"/>
+      <c r="AU140" s="24"/>
+      <c r="AV140" s="25"/>
     </row>
     <row r="141" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B141" s="4"/>
-      <c r="C141" s="132"/>
-      <c r="D141" s="132"/>
-      <c r="E141" s="132"/>
-      <c r="F141" s="132"/>
-      <c r="G141" s="132"/>
-      <c r="H141" s="132"/>
-      <c r="I141" s="5"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="132"/>
-      <c r="N141" s="132"/>
-      <c r="O141" s="132"/>
-      <c r="P141" s="132"/>
-      <c r="Q141" s="132"/>
-      <c r="R141" s="132"/>
-      <c r="S141" s="132"/>
-      <c r="T141" s="5"/>
-      <c r="W141" s="4"/>
-      <c r="X141" s="132"/>
-      <c r="Y141" s="132"/>
-      <c r="Z141" s="132"/>
-      <c r="AA141" s="132"/>
-      <c r="AB141" s="132"/>
-      <c r="AC141" s="132"/>
-      <c r="AD141" s="132"/>
-      <c r="AE141" s="132"/>
-      <c r="AF141" s="132"/>
-      <c r="AG141" s="132"/>
-      <c r="AH141" s="132"/>
-      <c r="AI141" s="132"/>
-      <c r="AJ141" s="132"/>
-      <c r="AK141" s="5"/>
-      <c r="AN141" s="4"/>
-      <c r="AO141" s="132"/>
-      <c r="AP141" s="132"/>
-      <c r="AQ141" s="132"/>
-      <c r="AR141" s="132"/>
-      <c r="AS141" s="132"/>
-      <c r="AT141" s="132"/>
-      <c r="AU141" s="132"/>
-      <c r="AV141" s="5"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="23"/>
+      <c r="I141" s="24"/>
+      <c r="L141" s="34"/>
+      <c r="M141" s="24"/>
+      <c r="N141" s="24"/>
+      <c r="O141" s="24"/>
+      <c r="P141" s="24"/>
+      <c r="Q141" s="25"/>
+      <c r="R141" s="23"/>
+      <c r="S141" s="24"/>
+      <c r="T141" s="35"/>
+      <c r="W141" s="34"/>
+      <c r="X141" s="24"/>
+      <c r="Y141" s="24"/>
+      <c r="Z141" s="24"/>
+      <c r="AA141" s="24"/>
+      <c r="AB141" s="25"/>
+      <c r="AC141" s="23"/>
+      <c r="AD141" s="24"/>
+      <c r="AE141" s="24"/>
+      <c r="AF141" s="24"/>
+      <c r="AG141" s="24"/>
+      <c r="AH141" s="25"/>
+      <c r="AI141" s="23"/>
+      <c r="AJ141" s="24"/>
+      <c r="AK141" s="35"/>
+      <c r="AN141" s="23"/>
+      <c r="AO141" s="24"/>
+      <c r="AP141" s="35"/>
+      <c r="AQ141" s="23"/>
+      <c r="AR141" s="24"/>
+      <c r="AS141" s="24"/>
+      <c r="AT141" s="24"/>
+      <c r="AU141" s="24"/>
+      <c r="AV141" s="25"/>
     </row>
     <row r="142" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B142" s="4"/>
-      <c r="C142" s="132"/>
-      <c r="D142" s="132"/>
-      <c r="E142" s="132"/>
-      <c r="F142" s="132"/>
-      <c r="G142" s="132"/>
-      <c r="H142" s="132"/>
-      <c r="I142" s="5"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="132"/>
-      <c r="N142" s="132"/>
-      <c r="O142" s="132"/>
-      <c r="P142" s="132"/>
-      <c r="Q142" s="132"/>
-      <c r="R142" s="132"/>
-      <c r="S142" s="132"/>
-      <c r="T142" s="5"/>
-      <c r="W142" s="4"/>
-      <c r="X142" s="132"/>
-      <c r="Y142" s="132"/>
-      <c r="Z142" s="132"/>
-      <c r="AA142" s="132"/>
-      <c r="AB142" s="132"/>
-      <c r="AC142" s="132"/>
-      <c r="AD142" s="132"/>
-      <c r="AE142" s="132"/>
-      <c r="AF142" s="132"/>
-      <c r="AG142" s="132"/>
-      <c r="AH142" s="132"/>
-      <c r="AI142" s="132"/>
-      <c r="AJ142" s="132"/>
-      <c r="AK142" s="5"/>
-      <c r="AN142" s="4"/>
-      <c r="AO142" s="132"/>
-      <c r="AP142" s="132"/>
-      <c r="AQ142" s="132"/>
-      <c r="AR142" s="132"/>
-      <c r="AS142" s="132"/>
-      <c r="AT142" s="132"/>
-      <c r="AU142" s="132"/>
-      <c r="AV142" s="5"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="23"/>
+      <c r="I142" s="24"/>
+      <c r="L142" s="34"/>
+      <c r="M142" s="24"/>
+      <c r="N142" s="24"/>
+      <c r="O142" s="24"/>
+      <c r="P142" s="24"/>
+      <c r="Q142" s="25"/>
+      <c r="R142" s="23"/>
+      <c r="S142" s="24"/>
+      <c r="T142" s="35"/>
+      <c r="W142" s="34"/>
+      <c r="X142" s="24"/>
+      <c r="Y142" s="24"/>
+      <c r="Z142" s="24"/>
+      <c r="AA142" s="24"/>
+      <c r="AB142" s="25"/>
+      <c r="AC142" s="23"/>
+      <c r="AD142" s="24"/>
+      <c r="AE142" s="24"/>
+      <c r="AF142" s="24"/>
+      <c r="AG142" s="24"/>
+      <c r="AH142" s="25"/>
+      <c r="AI142" s="23"/>
+      <c r="AJ142" s="24"/>
+      <c r="AK142" s="35"/>
+      <c r="AN142" s="23"/>
+      <c r="AO142" s="24"/>
+      <c r="AP142" s="35"/>
+      <c r="AQ142" s="23"/>
+      <c r="AR142" s="24"/>
+      <c r="AS142" s="24"/>
+      <c r="AT142" s="24"/>
+      <c r="AU142" s="24"/>
+      <c r="AV142" s="25"/>
     </row>
     <row r="143" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B143" s="4"/>
-      <c r="C143" s="132"/>
-      <c r="D143" s="132"/>
-      <c r="E143" s="132"/>
-      <c r="F143" s="132"/>
-      <c r="G143" s="132"/>
-      <c r="H143" s="132"/>
-      <c r="I143" s="5"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="132"/>
-      <c r="N143" s="132"/>
-      <c r="O143" s="132"/>
-      <c r="P143" s="132"/>
-      <c r="Q143" s="132"/>
-      <c r="R143" s="132"/>
-      <c r="S143" s="132"/>
-      <c r="T143" s="5"/>
-      <c r="W143" s="4"/>
-      <c r="X143" s="132"/>
-      <c r="Y143" s="132"/>
-      <c r="Z143" s="132"/>
-      <c r="AA143" s="132"/>
-      <c r="AB143" s="132"/>
-      <c r="AC143" s="132"/>
-      <c r="AD143" s="132"/>
-      <c r="AE143" s="132"/>
-      <c r="AF143" s="132"/>
-      <c r="AG143" s="132"/>
-      <c r="AH143" s="132"/>
-      <c r="AI143" s="132"/>
-      <c r="AJ143" s="132"/>
-      <c r="AK143" s="5"/>
-      <c r="AN143" s="4"/>
-      <c r="AO143" s="132"/>
-      <c r="AP143" s="132"/>
-      <c r="AQ143" s="132"/>
-      <c r="AR143" s="132"/>
-      <c r="AS143" s="132"/>
-      <c r="AT143" s="132"/>
-      <c r="AU143" s="132"/>
-      <c r="AV143" s="5"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="23"/>
+      <c r="I143" s="24"/>
+      <c r="L143" s="34"/>
+      <c r="M143" s="24"/>
+      <c r="N143" s="24"/>
+      <c r="O143" s="24"/>
+      <c r="P143" s="24"/>
+      <c r="Q143" s="25"/>
+      <c r="R143" s="23"/>
+      <c r="S143" s="24"/>
+      <c r="T143" s="35"/>
+      <c r="W143" s="34"/>
+      <c r="X143" s="24"/>
+      <c r="Y143" s="24"/>
+      <c r="Z143" s="24"/>
+      <c r="AA143" s="24"/>
+      <c r="AB143" s="25"/>
+      <c r="AC143" s="23"/>
+      <c r="AD143" s="24"/>
+      <c r="AE143" s="24"/>
+      <c r="AF143" s="24"/>
+      <c r="AG143" s="24"/>
+      <c r="AH143" s="25"/>
+      <c r="AI143" s="23"/>
+      <c r="AJ143" s="24"/>
+      <c r="AK143" s="35"/>
+      <c r="AN143" s="23"/>
+      <c r="AO143" s="24"/>
+      <c r="AP143" s="35"/>
+      <c r="AQ143" s="23"/>
+      <c r="AR143" s="24"/>
+      <c r="AS143" s="24"/>
+      <c r="AT143" s="24"/>
+      <c r="AU143" s="24"/>
+      <c r="AV143" s="25"/>
     </row>
     <row r="144" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B144" s="4"/>
-      <c r="C144" s="132"/>
-      <c r="D144" s="132"/>
-      <c r="E144" s="132"/>
-      <c r="F144" s="132"/>
-      <c r="G144" s="132"/>
-      <c r="H144" s="132"/>
-      <c r="I144" s="5"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="132"/>
-      <c r="N144" s="132"/>
-      <c r="O144" s="132"/>
-      <c r="P144" s="132"/>
-      <c r="Q144" s="132"/>
-      <c r="R144" s="132"/>
-      <c r="S144" s="132"/>
-      <c r="T144" s="5"/>
-      <c r="W144" s="4"/>
-      <c r="X144" s="132"/>
-      <c r="Y144" s="132"/>
-      <c r="Z144" s="132"/>
-      <c r="AA144" s="132"/>
-      <c r="AB144" s="132"/>
-      <c r="AC144" s="132"/>
-      <c r="AD144" s="132"/>
-      <c r="AE144" s="132"/>
-      <c r="AF144" s="132"/>
-      <c r="AG144" s="132"/>
-      <c r="AH144" s="132"/>
-      <c r="AI144" s="132"/>
-      <c r="AJ144" s="132"/>
-      <c r="AK144" s="5"/>
-      <c r="AN144" s="4"/>
-      <c r="AO144" s="132"/>
-      <c r="AP144" s="132"/>
-      <c r="AQ144" s="132"/>
-      <c r="AR144" s="132"/>
-      <c r="AS144" s="132"/>
-      <c r="AT144" s="132"/>
-      <c r="AU144" s="132"/>
-      <c r="AV144" s="5"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="24"/>
+      <c r="L144" s="34"/>
+      <c r="M144" s="24"/>
+      <c r="N144" s="24"/>
+      <c r="O144" s="24"/>
+      <c r="P144" s="24"/>
+      <c r="Q144" s="25"/>
+      <c r="R144" s="23"/>
+      <c r="S144" s="24"/>
+      <c r="T144" s="35"/>
+      <c r="W144" s="34"/>
+      <c r="X144" s="24"/>
+      <c r="Y144" s="24"/>
+      <c r="Z144" s="24"/>
+      <c r="AA144" s="24"/>
+      <c r="AB144" s="25"/>
+      <c r="AC144" s="23"/>
+      <c r="AD144" s="24"/>
+      <c r="AE144" s="24"/>
+      <c r="AF144" s="24"/>
+      <c r="AG144" s="24"/>
+      <c r="AH144" s="25"/>
+      <c r="AI144" s="23"/>
+      <c r="AJ144" s="24"/>
+      <c r="AK144" s="35"/>
+      <c r="AN144" s="23"/>
+      <c r="AO144" s="24"/>
+      <c r="AP144" s="35"/>
+      <c r="AQ144" s="23"/>
+      <c r="AR144" s="24"/>
+      <c r="AS144" s="24"/>
+      <c r="AT144" s="24"/>
+      <c r="AU144" s="24"/>
+      <c r="AV144" s="25"/>
     </row>
     <row r="145" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B145" s="4"/>
-      <c r="C145" s="132"/>
-      <c r="D145" s="132"/>
-      <c r="E145" s="132"/>
-      <c r="F145" s="132"/>
-      <c r="G145" s="132"/>
-      <c r="H145" s="132"/>
-      <c r="I145" s="5"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="132"/>
-      <c r="N145" s="132"/>
-      <c r="O145" s="132"/>
-      <c r="P145" s="132"/>
-      <c r="Q145" s="132"/>
-      <c r="R145" s="132"/>
-      <c r="S145" s="132"/>
-      <c r="T145" s="5"/>
-      <c r="W145" s="4"/>
-      <c r="X145" s="132"/>
-      <c r="Y145" s="132"/>
-      <c r="Z145" s="132"/>
-      <c r="AA145" s="132"/>
-      <c r="AB145" s="132"/>
-      <c r="AC145" s="132"/>
-      <c r="AD145" s="132"/>
-      <c r="AE145" s="132"/>
-      <c r="AF145" s="132"/>
-      <c r="AG145" s="132"/>
-      <c r="AH145" s="132"/>
-      <c r="AI145" s="132"/>
-      <c r="AJ145" s="132"/>
-      <c r="AK145" s="5"/>
-      <c r="AN145" s="4"/>
-      <c r="AO145" s="132"/>
-      <c r="AP145" s="132"/>
-      <c r="AQ145" s="132"/>
-      <c r="AR145" s="132"/>
-      <c r="AS145" s="132"/>
-      <c r="AT145" s="132"/>
-      <c r="AU145" s="132"/>
-      <c r="AV145" s="5"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="24"/>
+      <c r="L145" s="34"/>
+      <c r="M145" s="24"/>
+      <c r="N145" s="24"/>
+      <c r="O145" s="24"/>
+      <c r="P145" s="24"/>
+      <c r="Q145" s="25"/>
+      <c r="R145" s="23"/>
+      <c r="S145" s="24"/>
+      <c r="T145" s="35"/>
+      <c r="W145" s="34"/>
+      <c r="X145" s="24"/>
+      <c r="Y145" s="24"/>
+      <c r="Z145" s="24"/>
+      <c r="AA145" s="24"/>
+      <c r="AB145" s="25"/>
+      <c r="AC145" s="23"/>
+      <c r="AD145" s="24"/>
+      <c r="AE145" s="24"/>
+      <c r="AF145" s="24"/>
+      <c r="AG145" s="24"/>
+      <c r="AH145" s="25"/>
+      <c r="AI145" s="23"/>
+      <c r="AJ145" s="24"/>
+      <c r="AK145" s="35"/>
+      <c r="AN145" s="23"/>
+      <c r="AO145" s="24"/>
+      <c r="AP145" s="35"/>
+      <c r="AQ145" s="23"/>
+      <c r="AR145" s="24"/>
+      <c r="AS145" s="24"/>
+      <c r="AT145" s="24"/>
+      <c r="AU145" s="24"/>
+      <c r="AV145" s="25"/>
     </row>
     <row r="146" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B146" s="6"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="8"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="7"/>
-      <c r="N146" s="7"/>
-      <c r="O146" s="7"/>
-      <c r="P146" s="7"/>
-      <c r="Q146" s="7"/>
-      <c r="R146" s="7"/>
-      <c r="S146" s="7"/>
-      <c r="T146" s="8"/>
-      <c r="W146" s="6"/>
-      <c r="X146" s="7"/>
-      <c r="Y146" s="7"/>
-      <c r="Z146" s="7"/>
-      <c r="AA146" s="7"/>
-      <c r="AB146" s="7"/>
-      <c r="AC146" s="7"/>
-      <c r="AD146" s="7"/>
-      <c r="AE146" s="7"/>
-      <c r="AF146" s="7"/>
-      <c r="AG146" s="7"/>
-      <c r="AH146" s="7"/>
-      <c r="AI146" s="7"/>
-      <c r="AJ146" s="7"/>
-      <c r="AK146" s="8"/>
-      <c r="AN146" s="6"/>
-      <c r="AO146" s="7"/>
-      <c r="AP146" s="7"/>
-      <c r="AQ146" s="7"/>
-      <c r="AR146" s="7"/>
-      <c r="AS146" s="7"/>
-      <c r="AT146" s="7"/>
-      <c r="AU146" s="7"/>
-      <c r="AV146" s="8"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="27"/>
+      <c r="L146" s="36"/>
+      <c r="M146" s="27"/>
+      <c r="N146" s="27"/>
+      <c r="O146" s="27"/>
+      <c r="P146" s="27"/>
+      <c r="Q146" s="28"/>
+      <c r="R146" s="26"/>
+      <c r="S146" s="27"/>
+      <c r="T146" s="37"/>
+      <c r="W146" s="36"/>
+      <c r="X146" s="27"/>
+      <c r="Y146" s="27"/>
+      <c r="Z146" s="27"/>
+      <c r="AA146" s="27"/>
+      <c r="AB146" s="28"/>
+      <c r="AC146" s="26"/>
+      <c r="AD146" s="27"/>
+      <c r="AE146" s="27"/>
+      <c r="AF146" s="27"/>
+      <c r="AG146" s="27"/>
+      <c r="AH146" s="28"/>
+      <c r="AI146" s="26"/>
+      <c r="AJ146" s="27"/>
+      <c r="AK146" s="37"/>
+      <c r="AN146" s="26"/>
+      <c r="AO146" s="27"/>
+      <c r="AP146" s="37"/>
+      <c r="AQ146" s="26"/>
+      <c r="AR146" s="27"/>
+      <c r="AS146" s="27"/>
+      <c r="AT146" s="27"/>
+      <c r="AU146" s="27"/>
+      <c r="AV146" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -11745,6 +12441,7 @@
     <mergeCell ref="AL89:AN89"/>
     <mergeCell ref="Y89:Z89"/>
     <mergeCell ref="AF54:AI54"/>
+    <mergeCell ref="X54:Y54"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="AX7:BC7"/>
     <mergeCell ref="A17:A19"/>
@@ -11755,7 +12452,6 @@
     <mergeCell ref="V25:Y25"/>
     <mergeCell ref="AI25:AK25"/>
     <mergeCell ref="AV25:AX25"/>
-    <mergeCell ref="X54:Y54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
